--- a/tables/createAutarky.xlsx
+++ b/tables/createAutarky.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1548">
   <si>
     <t>Row</t>
   </si>
@@ -2362,6 +2362,1995 @@
   </si>
   <si>
     <t>xi_y2</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Roundabout Production</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>price of Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Total Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>mu_y2</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Roundabout Production</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>price of Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Total Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Roundabout Production</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>price of Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Total Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
   </si>
   <si>
     <t>alpha</t>
@@ -2688,7 +4677,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2700,16 +4689,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2731,24 +4726,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>664</v>
+        <v>1327</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>799</v>
+        <v>1462</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>800</v>
+        <v>1463</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>801</v>
+        <v>1464</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>810</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>665</v>
+        <v>1328</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -2757,15 +4752,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>811</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>666</v>
+        <v>1329</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -2774,15 +4769,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>812</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>667</v>
+        <v>1330</v>
       </c>
       <c r="B4" s="0">
         <v>0.69999999999999996</v>
@@ -2791,15 +4786,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>813</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>668</v>
+        <v>1331</v>
       </c>
       <c r="B5" s="0">
         <v>0.48999999999999994</v>
@@ -2808,185 +4803,185 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>814</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>669</v>
+        <v>1332</v>
       </c>
       <c r="B6" s="0">
-        <v>0.95000000000000018</v>
+        <v>0.94999999999999973</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>815</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>670</v>
+        <v>1333</v>
       </c>
       <c r="B7" s="0">
-        <v>0.50008269044960352</v>
+        <v>0.50008269044960318</v>
       </c>
       <c r="C7" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>816</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>671</v>
+        <v>1334</v>
       </c>
       <c r="B8" s="0">
-        <v>0.078399999999999984</v>
+        <v>0.097999999999999976</v>
       </c>
       <c r="C8" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>817</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>672</v>
+        <v>1335</v>
       </c>
       <c r="B9" s="0">
-        <v>1.5997354343153787</v>
+        <v>1.9996692928942255</v>
       </c>
       <c r="C9" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>818</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>673</v>
+        <v>1336</v>
       </c>
       <c r="B10" s="0">
-        <v>0.78387036281453559</v>
+        <v>0.65322530234544696</v>
       </c>
       <c r="C10" s="0">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>819</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>674</v>
+        <v>1337</v>
       </c>
       <c r="B11" s="0">
-        <v>0.13191730955039646</v>
+        <v>0.13191730955039685</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>820</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>675</v>
+        <v>1338</v>
       </c>
       <c r="B12" s="0">
-        <v>0.87944873033597792</v>
+        <v>0.87944873033597726</v>
       </c>
       <c r="C12" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>821</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>676</v>
+        <v>1339</v>
       </c>
       <c r="B13" s="0">
-        <v>0.87944873033597804</v>
+        <v>0.87944873033597726</v>
       </c>
       <c r="C13" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>822</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>677</v>
+        <v>1340</v>
       </c>
       <c r="B14" s="0">
-        <v>0.87944873033597792</v>
+        <v>0.87944873033597726</v>
       </c>
       <c r="C14" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>823</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>678</v>
+        <v>1341</v>
       </c>
       <c r="B15" s="0">
-        <v>0.023447598398196167</v>
+        <v>0.023447598398196177</v>
       </c>
       <c r="C15" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>824</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>679</v>
+        <v>1342</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -2995,32 +4990,32 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>825</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>680</v>
+        <v>1343</v>
       </c>
       <c r="B17" s="0">
-        <v>1.9996692928942241</v>
+        <v>1.9996692928942259</v>
       </c>
       <c r="C17" s="0">
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>826</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>681</v>
+        <v>1344</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -3029,15 +5024,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>827</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>682</v>
+        <v>1345</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -3046,83 +5041,83 @@
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>828</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>683</v>
+        <v>1346</v>
       </c>
       <c r="B20" s="0">
-        <v>1.1999999999999995</v>
+        <v>1.2</v>
       </c>
       <c r="C20" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>829</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>684</v>
+        <v>1347</v>
       </c>
       <c r="B21" s="0">
-        <v>3.259005045157648</v>
+        <v>3.2590050451576511</v>
       </c>
       <c r="C21" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>830</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>685</v>
+        <v>1348</v>
       </c>
       <c r="B22" s="0">
-        <v>2.1999999999999993</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C22" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>831</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>686</v>
+        <v>1349</v>
       </c>
       <c r="B23" s="0">
         <v>1</v>
       </c>
       <c r="C23" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>832</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>687</v>
+        <v>1350</v>
       </c>
       <c r="B24" s="0">
         <v>0.90909090909090906</v>
@@ -3131,15 +5126,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>833</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>688</v>
+        <v>1351</v>
       </c>
       <c r="B25" s="0">
         <v>0.36363636363636365</v>
@@ -3148,49 +5143,49 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>834</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>689</v>
+        <v>1352</v>
       </c>
       <c r="B26" s="0">
-        <v>0.17183158425362635</v>
+        <v>0.17183158425362627</v>
       </c>
       <c r="C26" s="0">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>835</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>690</v>
+        <v>1353</v>
       </c>
       <c r="B27" s="0">
         <v>1</v>
       </c>
       <c r="C27" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>836</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>691</v>
+        <v>1354</v>
       </c>
       <c r="B28" s="0">
         <v>1</v>
@@ -3199,15 +5194,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>837</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>692</v>
+        <v>1355</v>
       </c>
       <c r="B29" s="0">
         <v>1</v>
@@ -3216,115 +5211,115 @@
         <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>838</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>693</v>
+        <v>1356</v>
       </c>
       <c r="B30" s="0">
-        <v>0.27289822785725343</v>
+        <v>0.27289822785725365</v>
       </c>
       <c r="C30" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>839</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>694</v>
+        <v>1357</v>
       </c>
       <c r="B31" s="0">
-        <v>0.50008269044960363</v>
+        <v>0.50008269044960318</v>
       </c>
       <c r="C31" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>840</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>695</v>
+        <v>1358</v>
       </c>
       <c r="B32" s="0">
-        <v>0.50008269044960352</v>
+        <v>0.50008269044960318</v>
       </c>
       <c r="C32" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>696</v>
+        <v>1359</v>
       </c>
       <c r="B33" s="0">
-        <v>1.0522612924813191</v>
+        <v>1.0522612924813197</v>
       </c>
       <c r="C33" s="0">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>841</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>697</v>
+        <v>1360</v>
       </c>
       <c r="B34" s="0">
-        <v>1.0522612924813193</v>
+        <v>1.0522612924813197</v>
       </c>
       <c r="C34" s="0">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>842</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>698</v>
+        <v>1361</v>
       </c>
       <c r="B35" s="0">
-        <v>0.35997243651679894</v>
+        <v>0.35997243651679889</v>
       </c>
       <c r="C35" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>843</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>699</v>
+        <v>1362</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -3333,15 +5328,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>844</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>700</v>
+        <v>1363</v>
       </c>
       <c r="B37" s="0">
         <v>1</v>
@@ -3350,32 +5345,32 @@
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>845</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>701</v>
+        <v>1364</v>
       </c>
       <c r="B38" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C38" s="0">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>846</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>702</v>
+        <v>1365</v>
       </c>
       <c r="B39" s="0">
         <v>1</v>
@@ -3384,32 +5379,32 @@
         <v>1</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>847</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>703</v>
+        <v>1366</v>
       </c>
       <c r="B40" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C40" s="0">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>848</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>704</v>
+        <v>1367</v>
       </c>
       <c r="B41" s="0">
         <v>1</v>
@@ -3418,253 +5413,253 @@
         <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>849</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>705</v>
+        <v>1368</v>
       </c>
       <c r="B42" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C42" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>850</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>706</v>
+        <v>1369</v>
       </c>
       <c r="B43" s="0">
-        <v>0.50008269044960352</v>
+        <v>0.50008269044960318</v>
       </c>
       <c r="C43" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>851</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>707</v>
+        <v>1370</v>
       </c>
       <c r="B44" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>852</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>708</v>
+        <v>1371</v>
       </c>
       <c r="B45" s="0">
-        <v>0.13191730955039646</v>
+        <v>0.13191730955039685</v>
       </c>
       <c r="C45" s="0">
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>853</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>709</v>
+        <v>1372</v>
       </c>
       <c r="B46" s="0">
-        <v>0.083999999999999964</v>
+        <v>0.33599999999999997</v>
       </c>
       <c r="C46" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>854</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>710</v>
+        <v>1373</v>
       </c>
       <c r="B47" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="0">
         <v>1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>855</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>711</v>
+        <v>1374</v>
       </c>
       <c r="B48" s="0">
-        <v>0.041999999999999975</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C48" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>856</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>712</v>
+        <v>1375</v>
       </c>
       <c r="B49" s="0">
-        <v>0.041999999999999975</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C49" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>857</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>713</v>
+        <v>1376</v>
       </c>
       <c r="B50" s="0">
-        <v>0.16799999999999993</v>
+        <v>0.16799999999999998</v>
       </c>
       <c r="C50" s="0">
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>858</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>714</v>
+        <v>1377</v>
       </c>
       <c r="B51" s="0">
-        <v>0.083999999999999964</v>
+        <v>0.33599999999999997</v>
       </c>
       <c r="C51" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>859</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>715</v>
+        <v>1378</v>
       </c>
       <c r="B52" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" s="0">
         <v>1</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>802</v>
+        <v>1465</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>860</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>716</v>
+        <v>1379</v>
       </c>
       <c r="B53" s="0">
-        <v>1.8765109733383411e-20</v>
+        <v>-1.6099935554079168e-23</v>
       </c>
       <c r="C53" s="0">
-        <v>-1.0543252698567548e-20</v>
+        <v>4.9702343377700478e-24</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>803</v>
+        <v>1466</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>861</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>717</v>
+        <v>1380</v>
       </c>
       <c r="B54" s="0">
-        <v>1.0522612924813193</v>
+        <v>1.0522612924813197</v>
       </c>
       <c r="C54" s="0">
         <v>1</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>804</v>
+        <v>1467</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>862</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>718</v>
+        <v>1381</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>-8.0346333522937322e-23</v>
+        <v>-2.0170224257040672e-24</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>805</v>
+        <v>1468</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>863</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>719</v>
+        <v>1382</v>
       </c>
       <c r="B56" s="0">
         <v>1</v>
@@ -3673,15 +5668,15 @@
         <v>1</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>864</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>720</v>
+        <v>1383</v>
       </c>
       <c r="B57" s="0">
         <v>1</v>
@@ -3690,15 +5685,15 @@
         <v>1</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>865</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>721</v>
+        <v>1384</v>
       </c>
       <c r="B58" s="0">
         <v>1</v>
@@ -3707,32 +5702,32 @@
         <v>1</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>866</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>722</v>
+        <v>1385</v>
       </c>
       <c r="B59" s="0">
-        <v>1.0522612924813193</v>
+        <v>1.0522612924813197</v>
       </c>
       <c r="C59" s="0">
         <v>1</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>867</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>723</v>
+        <v>1386</v>
       </c>
       <c r="B60" s="0">
         <v>1</v>
@@ -3741,115 +5736,115 @@
         <v>1</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>868</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>724</v>
+        <v>1387</v>
       </c>
       <c r="B61" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C61" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>806</v>
+        <v>1469</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>869</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>725</v>
+        <v>1388</v>
       </c>
       <c r="B62" s="0">
         <v>0.40000000000000002</v>
       </c>
       <c r="C62" s="0">
-        <v>-2.674226936507312e-18</v>
+        <v>-5.5201881558760866e-18</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>807</v>
+        <v>1470</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>870</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>726</v>
+        <v>1389</v>
       </c>
       <c r="B63" s="0">
-        <v>0.44173597929158825</v>
+        <v>0.44173597929158853</v>
       </c>
       <c r="C63" s="0">
-        <v>1.2951876477472776e-17</v>
+        <v>3.187624680146671e-17</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>807</v>
+        <v>1470</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>871</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>727</v>
+        <v>1390</v>
       </c>
       <c r="B64" s="0">
-        <v>-3.2730325458321706e-23</v>
+        <v>-1.7222970750961509e-27</v>
       </c>
       <c r="C64" s="0">
-        <v>1.0901882904653486e-23</v>
+        <v>5.8085780746951304e-28</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>807</v>
+        <v>1470</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>872</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>728</v>
+        <v>1391</v>
       </c>
       <c r="B65" s="0">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C65" s="0">
         <v>1</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>808</v>
+        <v>1471</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>873</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>729</v>
+        <v>1392</v>
       </c>
       <c r="B66" s="0">
-        <v>26.839251011899048</v>
+        <v>17.779761358258192</v>
       </c>
       <c r="C66" s="0">
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>808</v>
+        <v>1471</v>
       </c>
       <c r="E66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>730</v>
+        <v>1393</v>
       </c>
       <c r="B67" s="0">
         <v>1</v>
@@ -3858,13 +5853,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>808</v>
+        <v>1471</v>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>731</v>
+        <v>1394</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -3873,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>732</v>
+        <v>1395</v>
       </c>
       <c r="B69" s="0">
         <v>0</v>
@@ -3888,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>733</v>
+        <v>1396</v>
       </c>
       <c r="B70" s="0">
         <v>0</v>
@@ -3903,13 +5898,13 @@
         <v>0</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>734</v>
+        <v>1397</v>
       </c>
       <c r="B71" s="0">
         <v>0</v>
@@ -3918,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>735</v>
+        <v>1398</v>
       </c>
       <c r="B72" s="0">
         <v>0</v>
@@ -3933,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>736</v>
+        <v>1399</v>
       </c>
       <c r="B73" s="0">
         <v>0</v>
@@ -3948,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>737</v>
+        <v>1400</v>
       </c>
       <c r="B74" s="0">
         <v>0</v>
@@ -3963,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>738</v>
+        <v>1401</v>
       </c>
       <c r="B75" s="0">
         <v>0</v>
@@ -3978,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>739</v>
+        <v>1402</v>
       </c>
       <c r="B76" s="0">
         <v>0</v>
@@ -3993,13 +5988,13 @@
         <v>0</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>740</v>
+        <v>1403</v>
       </c>
       <c r="B77" s="0">
         <v>0</v>
@@ -4008,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>741</v>
+        <v>1404</v>
       </c>
       <c r="B78" s="0">
         <v>0</v>
@@ -4023,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E78" s="0"/>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>742</v>
+        <v>1405</v>
       </c>
       <c r="B79" s="0">
         <v>0</v>
@@ -4038,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>743</v>
+        <v>1406</v>
       </c>
       <c r="B80" s="0">
         <v>1</v>
@@ -4053,15 +6048,15 @@
         <v>0</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>874</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>744</v>
+        <v>1407</v>
       </c>
       <c r="B81" s="0">
         <v>0.69999999999999996</v>
@@ -4070,15 +6065,15 @@
         <v>0</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>875</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>745</v>
+        <v>1408</v>
       </c>
       <c r="B82" s="0">
         <v>0.69999999999999996</v>
@@ -4087,15 +6082,15 @@
         <v>0</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>876</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>746</v>
+        <v>1409</v>
       </c>
       <c r="B83" s="0">
         <v>0.90000000000000002</v>
@@ -4104,15 +6099,15 @@
         <v>0</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>877</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>747</v>
+        <v>1410</v>
       </c>
       <c r="B84" s="0">
         <v>0.90000000000000002</v>
@@ -4121,15 +6116,15 @@
         <v>0</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>878</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>748</v>
+        <v>1411</v>
       </c>
       <c r="B85" s="0">
         <v>0.5</v>
@@ -4138,15 +6133,15 @@
         <v>0</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>879</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>749</v>
+        <v>1412</v>
       </c>
       <c r="B86" s="0">
         <v>0.5</v>
@@ -4155,13 +6150,13 @@
         <v>0</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E86" s="0"/>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>750</v>
+        <v>1413</v>
       </c>
       <c r="B87" s="0">
         <v>0.20000000000000001</v>
@@ -4170,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E87" s="0"/>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>751</v>
+        <v>1414</v>
       </c>
       <c r="B88" s="0">
         <v>0</v>
@@ -4185,13 +6180,13 @@
         <v>0</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E88" s="0"/>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>752</v>
+        <v>1415</v>
       </c>
       <c r="B89" s="0">
         <v>1</v>
@@ -4200,13 +6195,13 @@
         <v>0</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E89" s="0"/>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>753</v>
+        <v>1416</v>
       </c>
       <c r="B90" s="0">
         <v>0</v>
@@ -4215,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E90" s="0"/>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>754</v>
+        <v>1417</v>
       </c>
       <c r="B91" s="0">
         <v>0.029999999999999999</v>
@@ -4230,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E91" s="0"/>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>755</v>
+        <v>1418</v>
       </c>
       <c r="B92" s="0">
         <v>0</v>
@@ -4245,13 +6240,13 @@
         <v>0</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>756</v>
+        <v>1419</v>
       </c>
       <c r="B93" s="0">
         <v>0.5</v>
@@ -4260,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>757</v>
+        <v>1420</v>
       </c>
       <c r="B94" s="0">
         <v>1</v>
@@ -4275,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>758</v>
+        <v>1421</v>
       </c>
       <c r="B95" s="0">
         <v>0.20000000000000001</v>
@@ -4290,13 +6285,13 @@
         <v>0</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>759</v>
+        <v>1422</v>
       </c>
       <c r="B96" s="0">
         <v>0.94999999999999996</v>
@@ -4305,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>760</v>
+        <v>1423</v>
       </c>
       <c r="B97" s="0">
         <v>0.90000000000000002</v>
@@ -4320,13 +6315,13 @@
         <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>761</v>
+        <v>1424</v>
       </c>
       <c r="B98" s="0">
         <v>0.14999999999999999</v>
@@ -4335,28 +6330,28 @@
         <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>762</v>
+        <v>1425</v>
       </c>
       <c r="B99" s="0">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C99" s="0">
         <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E99" s="0"/>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>763</v>
+        <v>1426</v>
       </c>
       <c r="B100" s="0">
         <v>0.69999999999999996</v>
@@ -4365,13 +6360,13 @@
         <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>764</v>
+        <v>1427</v>
       </c>
       <c r="B101" s="0">
         <v>0.29999999999999999</v>
@@ -4380,13 +6375,13 @@
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>765</v>
+        <v>1428</v>
       </c>
       <c r="B102" s="0">
         <v>0.59999999999999998</v>
@@ -4395,13 +6390,13 @@
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>766</v>
+        <v>1429</v>
       </c>
       <c r="B103" s="0">
         <v>0</v>
@@ -4410,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>767</v>
+        <v>1430</v>
       </c>
       <c r="B104" s="0">
         <v>0.40000000000000002</v>
@@ -4425,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>768</v>
+        <v>1431</v>
       </c>
       <c r="B105" s="0">
         <v>0.10000000000000001</v>
@@ -4440,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>769</v>
+        <v>1432</v>
       </c>
       <c r="B106" s="0">
         <v>0.5</v>
@@ -4455,13 +6450,13 @@
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E106" s="0"/>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>770</v>
+        <v>1433</v>
       </c>
       <c r="B107" s="0">
         <v>1</v>
@@ -4470,13 +6465,13 @@
         <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E107" s="0"/>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>771</v>
+        <v>1434</v>
       </c>
       <c r="B108" s="0">
         <v>1</v>
@@ -4485,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E108" s="0"/>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>772</v>
+        <v>1435</v>
       </c>
       <c r="B109" s="0">
         <v>25</v>
@@ -4500,13 +6495,13 @@
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E109" s="0"/>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>773</v>
+        <v>1436</v>
       </c>
       <c r="B110" s="0">
         <v>1.1000000000000001</v>
@@ -4515,28 +6510,28 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E110" s="0"/>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>774</v>
+        <v>1437</v>
       </c>
       <c r="B111" s="0">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C111" s="0">
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E111" s="0"/>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>775</v>
+        <v>1438</v>
       </c>
       <c r="B112" s="0">
         <v>0.5</v>
@@ -4545,13 +6540,13 @@
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E112" s="0"/>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>776</v>
+        <v>1439</v>
       </c>
       <c r="B113" s="0">
         <v>3</v>
@@ -4560,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>777</v>
+        <v>1440</v>
       </c>
       <c r="B114" s="0">
         <v>0.5</v>
@@ -4575,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>778</v>
+        <v>1441</v>
       </c>
       <c r="B115" s="0">
         <v>4</v>
@@ -4590,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>779</v>
+        <v>1442</v>
       </c>
       <c r="B116" s="0">
         <v>2</v>
@@ -4605,13 +6600,13 @@
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E116" s="0"/>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>780</v>
+        <v>1443</v>
       </c>
       <c r="B117" s="0">
         <v>0.40000000000000002</v>
@@ -4620,13 +6615,13 @@
         <v>0</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>781</v>
+        <v>1444</v>
       </c>
       <c r="B118" s="0">
         <v>0.5</v>
@@ -4635,13 +6630,13 @@
         <v>0</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E118" s="0"/>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>782</v>
+        <v>1445</v>
       </c>
       <c r="B119" s="0">
         <v>0.5</v>
@@ -4650,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>783</v>
+        <v>1446</v>
       </c>
       <c r="B120" s="0">
         <v>0.5</v>
@@ -4665,15 +6660,15 @@
         <v>0</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>880</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>784</v>
+        <v>1447</v>
       </c>
       <c r="B121" s="0">
         <v>0.5</v>
@@ -4682,15 +6677,15 @@
         <v>0</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>881</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>785</v>
+        <v>1448</v>
       </c>
       <c r="B122" s="0">
         <v>0.10000000000000001</v>
@@ -4699,15 +6694,15 @@
         <v>0</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>882</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>786</v>
+        <v>1449</v>
       </c>
       <c r="B123" s="0">
         <v>0.59999999999999998</v>
@@ -4716,15 +6711,15 @@
         <v>0</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>883</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>787</v>
+        <v>1450</v>
       </c>
       <c r="B124" s="0">
         <v>0.40000000000000002</v>
@@ -4733,13 +6728,13 @@
         <v>0</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>788</v>
+        <v>1451</v>
       </c>
       <c r="B125" s="0">
         <v>0.20000000000000001</v>
@@ -4748,13 +6743,13 @@
         <v>0</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>789</v>
+        <v>1452</v>
       </c>
       <c r="B126" s="0">
         <v>0</v>
@@ -4763,13 +6758,13 @@
         <v>0</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E126" s="0"/>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>790</v>
+        <v>1453</v>
       </c>
       <c r="B127" s="0">
         <v>2.5</v>
@@ -4778,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E127" s="0"/>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>791</v>
+        <v>1454</v>
       </c>
       <c r="B128" s="0">
         <v>0.5</v>
@@ -4793,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E128" s="0"/>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>792</v>
+        <v>1455</v>
       </c>
       <c r="B129" s="0">
         <v>0.5</v>
@@ -4808,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E129" s="0"/>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>793</v>
+        <v>1456</v>
       </c>
       <c r="B130" s="0">
         <v>0.5</v>
@@ -4823,13 +6818,13 @@
         <v>0</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E130" s="0"/>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>794</v>
+        <v>1457</v>
       </c>
       <c r="B131" s="0">
         <v>0.5</v>
@@ -4838,13 +6833,13 @@
         <v>0</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>795</v>
+        <v>1458</v>
       </c>
       <c r="B132" s="0">
         <v>1</v>
@@ -4853,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E132" s="0"/>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>796</v>
+        <v>1459</v>
       </c>
       <c r="B133" s="0">
         <v>0.90000000000000002</v>
@@ -4868,13 +6863,13 @@
         <v>0</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E133" s="0"/>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>797</v>
+        <v>1460</v>
       </c>
       <c r="B134" s="0">
         <v>1</v>
@@ -4883,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E134" s="0"/>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>798</v>
+        <v>1461</v>
       </c>
       <c r="B135" s="0">
         <v>0</v>
@@ -4898,10 +6893,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>809</v>
+        <v>1472</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>884</v>
+        <v>1547</v>
       </c>
     </row>
   </sheetData>

--- a/tables/createAutarky.xlsx
+++ b/tables/createAutarky.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7935" uniqueCount="5058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10155" uniqueCount="6474">
   <si>
     <t>Row</t>
   </si>
@@ -15109,6 +15109,4254 @@
   </si>
   <si>
     <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>pmq</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Commodity Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>pmq</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Commodity Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xq</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xq</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xq</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xq</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>txl1</t>
+  </si>
+  <si>
+    <t>txl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_txl1</t>
+  </si>
+  <si>
+    <t>shk_txl2</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_txl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_txl2</t>
+  </si>
+  <si>
+    <t>rho_txl1</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Commodity Exports</t>
   </si>
   <si>
     <t>Price of Non-Commodity Exports</t>
@@ -15207,7 +19455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -15237,11 +19485,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -15265,6 +19519,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15286,24 +19546,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4822</v>
+        <v>6238</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4965</v>
+        <v>6381</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4966</v>
+        <v>6382</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4967</v>
+        <v>6383</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4976</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4823</v>
+        <v>6239</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -15312,15 +19572,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4977</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4824</v>
+        <v>6240</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -15329,15 +19589,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>4978</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4825</v>
+        <v>6241</v>
       </c>
       <c r="B4" s="0">
         <v>0.69999999999999996</v>
@@ -15346,15 +19606,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>4979</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4826</v>
+        <v>6242</v>
       </c>
       <c r="B5" s="0">
         <v>0.48999999999999994</v>
@@ -15363,185 +19623,185 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>4980</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4827</v>
+        <v>6243</v>
       </c>
       <c r="B6" s="0">
         <v>0.94999999999999984</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4981</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4828</v>
+        <v>6244</v>
       </c>
       <c r="B7" s="0">
         <v>0.5152207712421657</v>
       </c>
       <c r="C7" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>4982</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4829</v>
+        <v>6245</v>
       </c>
       <c r="B8" s="0">
-        <v>0.085938461538461547</v>
+        <v>0.085938461538461478</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4983</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4830</v>
+        <v>6246</v>
       </c>
       <c r="B9" s="0">
-        <v>1.7020336249427002</v>
+        <v>1.7020336249426995</v>
       </c>
       <c r="C9" s="0">
         <v>0.99999999999999989</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>4984</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4831</v>
+        <v>6247</v>
       </c>
       <c r="B10" s="0">
-        <v>0.55599765081461539</v>
+        <v>0.55599765081461516</v>
       </c>
       <c r="C10" s="0">
         <v>0.99999999999999989</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>4985</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4832</v>
+        <v>6248</v>
       </c>
       <c r="B11" s="0">
         <v>0.12517922875783433</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>4986</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4833</v>
+        <v>6249</v>
       </c>
       <c r="B12" s="0">
         <v>0.83452819171889558</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>4987</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4834</v>
+        <v>6250</v>
       </c>
       <c r="B13" s="0">
-        <v>0.8345281917188957</v>
+        <v>0.83452819171889558</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>4988</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4835</v>
+        <v>6251</v>
       </c>
       <c r="B14" s="0">
-        <v>0.8345281917188957</v>
+        <v>0.83452819171889558</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>4989</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4836</v>
+        <v>6252</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0081002605425134107</v>
+        <v>0.0081002605425138218</v>
       </c>
       <c r="C15" s="0">
-        <v>0.99999999999999389</v>
+        <v>0.99999999999998712</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>4990</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4837</v>
+        <v>6253</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -15550,32 +19810,32 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>4991</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4838</v>
+        <v>6254</v>
       </c>
       <c r="B17" s="0">
-        <v>1.9409155372153599</v>
+        <v>1.9409155372153597</v>
       </c>
       <c r="C17" s="0">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>4992</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4839</v>
+        <v>6255</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -15584,15 +19844,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>4993</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4840</v>
+        <v>6256</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -15601,134 +19861,134 @@
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>4994</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4841</v>
+        <v>6257</v>
       </c>
       <c r="B20" s="0">
         <v>1.1999999999999997</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>4995</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4842</v>
+        <v>6258</v>
       </c>
       <c r="B21" s="0">
         <v>4.1132294704008006</v>
       </c>
       <c r="C21" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>4996</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4843</v>
+        <v>6259</v>
       </c>
       <c r="B22" s="0">
         <v>2.5489443914406187</v>
       </c>
       <c r="C22" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>4997</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4844</v>
+        <v>6260</v>
       </c>
       <c r="B23" s="0">
         <v>2.1999999999999997</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>4998</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4845</v>
+        <v>6261</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>4999</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4846</v>
+        <v>6262</v>
       </c>
       <c r="B25" s="0">
         <v>0.12933876017088849</v>
       </c>
       <c r="C25" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>5000</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4847</v>
+        <v>6263</v>
       </c>
       <c r="B26" s="0">
-        <v>0.29816264432919282</v>
+        <v>0.29816264432919271</v>
       </c>
       <c r="C26" s="0">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>5001</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4848</v>
+        <v>6264</v>
       </c>
       <c r="B27" s="0">
         <v>0.36363636363636365</v>
@@ -15737,15 +19997,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>5002</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4849</v>
+        <v>6265</v>
       </c>
       <c r="B28" s="0">
         <v>0.90909090909090906</v>
@@ -15754,66 +20014,66 @@
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>5003</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4850</v>
+        <v>6266</v>
       </c>
       <c r="B29" s="0">
         <v>0.13415496797055887</v>
       </c>
       <c r="C29" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>5004</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4851</v>
+        <v>6267</v>
       </c>
       <c r="B30" s="0">
-        <v>0.29816264432919282</v>
+        <v>0.29816264432919271</v>
       </c>
       <c r="C30" s="0">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>5005</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4852</v>
+        <v>6268</v>
       </c>
       <c r="B31" s="0">
         <v>1</v>
       </c>
       <c r="C31" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>5006</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4853</v>
+        <v>6269</v>
       </c>
       <c r="B32" s="0">
         <v>1</v>
@@ -15822,15 +20082,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>5007</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4854</v>
+        <v>6270</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -15839,81 +20099,81 @@
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>5008</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4855</v>
+        <v>6271</v>
       </c>
       <c r="B34" s="0">
-        <v>0.27320826577516033</v>
+        <v>0.27320826577516022</v>
       </c>
       <c r="C34" s="0">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>5009</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4856</v>
+        <v>6272</v>
       </c>
       <c r="B35" s="0">
-        <v>0.51522077124216559</v>
+        <v>0.5152207712421657</v>
       </c>
       <c r="C35" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>5010</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>4857</v>
+        <v>6273</v>
       </c>
       <c r="B36" s="0">
-        <v>0.51522077124216559</v>
+        <v>0.5152207712421657</v>
       </c>
       <c r="C36" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>4858</v>
+        <v>6274</v>
       </c>
       <c r="B37" s="0">
-        <v>1.0525876481843794</v>
+        <v>1.0525876481843792</v>
       </c>
       <c r="C37" s="0">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>5011</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>4859</v>
+        <v>6275</v>
       </c>
       <c r="B38" s="0">
         <v>1.0525876481843794</v>
@@ -15922,32 +20182,32 @@
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>5012</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>4860</v>
+        <v>6276</v>
       </c>
       <c r="B39" s="0">
-        <v>0.36192640958594474</v>
+        <v>0.3619264095859448</v>
       </c>
       <c r="C39" s="0">
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>5013</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>4861</v>
+        <v>6277</v>
       </c>
       <c r="B40" s="0">
         <v>1</v>
@@ -15956,15 +20216,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>5014</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>4862</v>
+        <v>6278</v>
       </c>
       <c r="B41" s="0">
         <v>1</v>
@@ -15973,15 +20233,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>5015</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>4863</v>
+        <v>6279</v>
       </c>
       <c r="B42" s="0">
         <v>1</v>
@@ -15990,15 +20250,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>5016</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>4864</v>
+        <v>6280</v>
       </c>
       <c r="B43" s="0">
         <v>1</v>
@@ -16007,32 +20267,32 @@
         <v>1</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>5017</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>4865</v>
+        <v>6281</v>
       </c>
       <c r="B44" s="0">
-        <v>1</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="C44" s="0">
         <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>5018</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>4866</v>
+        <v>6282</v>
       </c>
       <c r="B45" s="0">
         <v>1</v>
@@ -16041,15 +20301,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>5019</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>4867</v>
+        <v>6283</v>
       </c>
       <c r="B46" s="0">
         <v>0.99999999999999989</v>
@@ -16058,236 +20318,236 @@
         <v>1</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>5020</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>4868</v>
+        <v>6284</v>
       </c>
       <c r="B47" s="0">
-        <v>0.51522077124216559</v>
+        <v>0.5152207712421657</v>
       </c>
       <c r="C47" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>5021</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>4869</v>
+        <v>6285</v>
       </c>
       <c r="B48" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C48" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>5022</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>4870</v>
+        <v>6286</v>
       </c>
       <c r="B49" s="0">
         <v>0.12517922875783433</v>
       </c>
       <c r="C49" s="0">
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>5023</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>4871</v>
+        <v>6287</v>
       </c>
       <c r="B50" s="0">
         <v>0.31919999999999993</v>
       </c>
       <c r="C50" s="0">
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>5024</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>4872</v>
+        <v>6288</v>
       </c>
       <c r="B51" s="0">
         <v>0.13415496797055887</v>
       </c>
       <c r="C51" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>5025</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>4873</v>
+        <v>6289</v>
       </c>
       <c r="B52" s="0">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C52" s="0">
         <v>1.0000000000000002</v>
       </c>
-      <c r="C52" s="0">
-        <v>0.99999999999999989</v>
-      </c>
       <c r="D52" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>5026</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>4874</v>
+        <v>6290</v>
       </c>
       <c r="B53" s="0">
-        <v>0.29816264432919282</v>
+        <v>0.15960000000000002</v>
       </c>
       <c r="C53" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>5027</v>
+        <v>6443</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>4875</v>
+        <v>6291</v>
       </c>
       <c r="B54" s="0">
         <v>0.15959999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>5028</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>4876</v>
+        <v>6292</v>
       </c>
       <c r="B55" s="0">
         <v>0.15959999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>5029</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>4877</v>
+        <v>6293</v>
       </c>
       <c r="B56" s="0">
-        <v>0.15960000000000002</v>
+        <v>0.31919999999999993</v>
       </c>
       <c r="C56" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>5030</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>4878</v>
+        <v>6294</v>
       </c>
       <c r="B57" s="0">
-        <v>0.31919999999999993</v>
+        <v>0.13415496797055887</v>
       </c>
       <c r="C57" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>5031</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>4879</v>
+        <v>6295</v>
       </c>
       <c r="B58" s="0">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C58" s="0">
         <v>1.0000000000000002</v>
       </c>
-      <c r="C58" s="0">
-        <v>0.99999999999999989</v>
-      </c>
       <c r="D58" s="0" t="s">
-        <v>4968</v>
+        <v>6384</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>5032</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>4880</v>
+        <v>6296</v>
       </c>
       <c r="B59" s="0">
-        <v>-2.116714936204646e-19</v>
+        <v>-3.6986780995770612e-26</v>
       </c>
       <c r="C59" s="0">
-        <v>5.9412498916654859e-20</v>
+        <v>-3.1422627647534046e-27</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>4969</v>
+        <v>6385</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>5033</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>4881</v>
+        <v>6297</v>
       </c>
       <c r="B60" s="0">
         <v>1.0525876481843794</v>
@@ -16296,32 +20556,32 @@
         <v>1</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>4970</v>
+        <v>6386</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>5034</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>4882</v>
+        <v>6298</v>
       </c>
       <c r="B61" s="0">
-        <v>1.0665270155828132e-19</v>
+        <v>-1.9698740607802158e-25</v>
       </c>
       <c r="C61" s="0">
-        <v>-3.7755901668614623e-20</v>
+        <v>1.5827888154964763e-25</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>4971</v>
+        <v>6387</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>5035</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>4883</v>
+        <v>6299</v>
       </c>
       <c r="B62" s="0">
         <v>1</v>
@@ -16330,15 +20590,15 @@
         <v>1</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>4972</v>
+        <v>6388</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>5036</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>4884</v>
+        <v>6300</v>
       </c>
       <c r="B63" s="0">
         <v>1</v>
@@ -16347,15 +20607,15 @@
         <v>1</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>4972</v>
+        <v>6388</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>5037</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>4885</v>
+        <v>6301</v>
       </c>
       <c r="B64" s="0">
         <v>1</v>
@@ -16364,15 +20624,15 @@
         <v>1</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>4972</v>
+        <v>6388</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>5038</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>4886</v>
+        <v>6302</v>
       </c>
       <c r="B65" s="0">
         <v>1.0525876481843794</v>
@@ -16381,15 +20641,15 @@
         <v>1</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>4972</v>
+        <v>6388</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>5039</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>4887</v>
+        <v>6303</v>
       </c>
       <c r="B66" s="0">
         <v>1</v>
@@ -16398,115 +20658,115 @@
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>4972</v>
+        <v>6388</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>5040</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>4888</v>
+        <v>6304</v>
       </c>
       <c r="B67" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C67" s="0">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>4972</v>
+        <v>6388</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>5041</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>4889</v>
+        <v>6305</v>
       </c>
       <c r="B68" s="0">
         <v>0.40000000000000002</v>
       </c>
       <c r="C68" s="0">
-        <v>4.3445615963839871e-18</v>
+        <v>4.5595973142620748e-18</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>4973</v>
+        <v>6389</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>5042</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>4890</v>
+        <v>6306</v>
       </c>
       <c r="B69" s="0">
-        <v>0.42901038081374282</v>
+        <v>0.42901038081374299</v>
       </c>
       <c r="C69" s="0">
-        <v>-2.1549760799129788e-17</v>
+        <v>-7.1608660034488618e-17</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>4973</v>
+        <v>6389</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>5043</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>4891</v>
+        <v>6307</v>
       </c>
       <c r="B70" s="0">
-        <v>-2.4664813370821401e-25</v>
+        <v>2.1442471782162765e-26</v>
       </c>
       <c r="C70" s="0">
-        <v>8.7340738166111304e-26</v>
+        <v>-4.3029444050371794e-27</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>4973</v>
+        <v>6389</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>5044</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>4892</v>
+        <v>6308</v>
       </c>
       <c r="B71" s="0">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="C71" s="0">
         <v>1</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>4974</v>
+        <v>6390</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>5045</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>4893</v>
+        <v>6309</v>
       </c>
       <c r="B72" s="0">
-        <v>29.777523479879026</v>
+        <v>29.77752347987904</v>
       </c>
       <c r="C72" s="0">
         <v>1</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>4974</v>
+        <v>6390</v>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>4894</v>
+        <v>6310</v>
       </c>
       <c r="B73" s="0">
         <v>1</v>
@@ -16515,13 +20775,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>4974</v>
+        <v>6390</v>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>4895</v>
+        <v>6311</v>
       </c>
       <c r="B74" s="0">
         <v>0</v>
@@ -16530,13 +20790,13 @@
         <v>0</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>4896</v>
+        <v>6312</v>
       </c>
       <c r="B75" s="0">
         <v>0</v>
@@ -16545,13 +20805,13 @@
         <v>0</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>4897</v>
+        <v>6313</v>
       </c>
       <c r="B76" s="0">
         <v>0</v>
@@ -16560,13 +20820,13 @@
         <v>0</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>4898</v>
+        <v>6314</v>
       </c>
       <c r="B77" s="0">
         <v>0</v>
@@ -16575,13 +20835,13 @@
         <v>0</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>4899</v>
+        <v>6315</v>
       </c>
       <c r="B78" s="0">
         <v>0</v>
@@ -16590,13 +20850,13 @@
         <v>0</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E78" s="0"/>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>4900</v>
+        <v>6316</v>
       </c>
       <c r="B79" s="0">
         <v>0</v>
@@ -16605,13 +20865,13 @@
         <v>0</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>4901</v>
+        <v>6317</v>
       </c>
       <c r="B80" s="0">
         <v>0</v>
@@ -16620,13 +20880,13 @@
         <v>0</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>4902</v>
+        <v>6318</v>
       </c>
       <c r="B81" s="0">
         <v>0</v>
@@ -16635,13 +20895,13 @@
         <v>0</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E81" s="0"/>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>4903</v>
+        <v>6319</v>
       </c>
       <c r="B82" s="0">
         <v>0</v>
@@ -16650,13 +20910,13 @@
         <v>0</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E82" s="0"/>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>4904</v>
+        <v>6320</v>
       </c>
       <c r="B83" s="0">
         <v>0</v>
@@ -16665,13 +20925,13 @@
         <v>0</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>4905</v>
+        <v>6321</v>
       </c>
       <c r="B84" s="0">
         <v>0</v>
@@ -16680,13 +20940,13 @@
         <v>0</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E84" s="0"/>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>4906</v>
+        <v>6322</v>
       </c>
       <c r="B85" s="0">
         <v>0</v>
@@ -16695,13 +20955,13 @@
         <v>0</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>4907</v>
+        <v>6323</v>
       </c>
       <c r="B86" s="0">
         <v>1</v>
@@ -16710,15 +20970,15 @@
         <v>0</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>5046</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>4908</v>
+        <v>6324</v>
       </c>
       <c r="B87" s="0">
         <v>0.69999999999999996</v>
@@ -16727,15 +20987,15 @@
         <v>0</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>5047</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>4909</v>
+        <v>6325</v>
       </c>
       <c r="B88" s="0">
         <v>0.69999999999999996</v>
@@ -16744,15 +21004,15 @@
         <v>0</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>5048</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>4910</v>
+        <v>6326</v>
       </c>
       <c r="B89" s="0">
         <v>0.90000000000000002</v>
@@ -16761,15 +21021,15 @@
         <v>0</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>5049</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>4911</v>
+        <v>6327</v>
       </c>
       <c r="B90" s="0">
         <v>0.90000000000000002</v>
@@ -16778,15 +21038,15 @@
         <v>0</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>5050</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>4912</v>
+        <v>6328</v>
       </c>
       <c r="B91" s="0">
         <v>0.5</v>
@@ -16795,15 +21055,15 @@
         <v>0</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>5051</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>4913</v>
+        <v>6329</v>
       </c>
       <c r="B92" s="0">
         <v>0.5</v>
@@ -16812,13 +21072,13 @@
         <v>0</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>4914</v>
+        <v>6330</v>
       </c>
       <c r="B93" s="0">
         <v>0.20000000000000001</v>
@@ -16827,13 +21087,13 @@
         <v>0</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>4915</v>
+        <v>6331</v>
       </c>
       <c r="B94" s="0">
         <v>0</v>
@@ -16842,13 +21102,13 @@
         <v>0</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>4916</v>
+        <v>6332</v>
       </c>
       <c r="B95" s="0">
         <v>1</v>
@@ -16857,13 +21117,13 @@
         <v>0</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>4917</v>
+        <v>6333</v>
       </c>
       <c r="B96" s="0">
         <v>0</v>
@@ -16872,13 +21132,13 @@
         <v>0</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>4918</v>
+        <v>6334</v>
       </c>
       <c r="B97" s="0">
         <v>0.01</v>
@@ -16887,13 +21147,13 @@
         <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>4919</v>
+        <v>6335</v>
       </c>
       <c r="B98" s="0">
         <v>0.5</v>
@@ -16902,13 +21162,13 @@
         <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>4920</v>
+        <v>6336</v>
       </c>
       <c r="B99" s="0">
         <v>0.5</v>
@@ -16917,13 +21177,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E99" s="0"/>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>4921</v>
+        <v>6337</v>
       </c>
       <c r="B100" s="0">
         <v>1</v>
@@ -16932,13 +21192,13 @@
         <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>4922</v>
+        <v>6338</v>
       </c>
       <c r="B101" s="0">
         <v>0.20000000000000001</v>
@@ -16947,13 +21207,13 @@
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>4923</v>
+        <v>6339</v>
       </c>
       <c r="B102" s="0">
         <v>0.94999999999999996</v>
@@ -16962,13 +21222,13 @@
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>4924</v>
+        <v>6340</v>
       </c>
       <c r="B103" s="0">
         <v>0.90000000000000002</v>
@@ -16977,13 +21237,13 @@
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>4925</v>
+        <v>6341</v>
       </c>
       <c r="B104" s="0">
         <v>0.14999999999999999</v>
@@ -16992,13 +21252,13 @@
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>4926</v>
+        <v>6342</v>
       </c>
       <c r="B105" s="0">
         <v>0.33333333333333331</v>
@@ -17007,13 +21267,13 @@
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>4927</v>
+        <v>6343</v>
       </c>
       <c r="B106" s="0">
         <v>0.69999999999999996</v>
@@ -17022,13 +21282,13 @@
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E106" s="0"/>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>4928</v>
+        <v>6344</v>
       </c>
       <c r="B107" s="0">
         <v>0.29999999999999999</v>
@@ -17037,13 +21297,13 @@
         <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E107" s="0"/>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>4929</v>
+        <v>6345</v>
       </c>
       <c r="B108" s="0">
         <v>0.050000000000000003</v>
@@ -17052,13 +21312,13 @@
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E108" s="0"/>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>4930</v>
+        <v>6346</v>
       </c>
       <c r="B109" s="0">
         <v>0.59999999999999998</v>
@@ -17067,13 +21327,13 @@
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E109" s="0"/>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>4931</v>
+        <v>6347</v>
       </c>
       <c r="B110" s="0">
         <v>0</v>
@@ -17082,13 +21342,13 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E110" s="0"/>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>4932</v>
+        <v>6348</v>
       </c>
       <c r="B111" s="0">
         <v>0.40000000000000002</v>
@@ -17097,13 +21357,13 @@
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E111" s="0"/>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>4933</v>
+        <v>6349</v>
       </c>
       <c r="B112" s="0">
         <v>0.10000000000000001</v>
@@ -17112,13 +21372,13 @@
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E112" s="0"/>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>4934</v>
+        <v>6350</v>
       </c>
       <c r="B113" s="0">
         <v>0.5</v>
@@ -17127,13 +21387,13 @@
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>4935</v>
+        <v>6351</v>
       </c>
       <c r="B114" s="0">
         <v>1</v>
@@ -17142,13 +21402,13 @@
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>4936</v>
+        <v>6352</v>
       </c>
       <c r="B115" s="0">
         <v>1</v>
@@ -17157,13 +21417,13 @@
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>4937</v>
+        <v>6353</v>
       </c>
       <c r="B116" s="0">
         <v>25</v>
@@ -17172,13 +21432,13 @@
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E116" s="0"/>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>4938</v>
+        <v>6354</v>
       </c>
       <c r="B117" s="0">
         <v>1.1000000000000001</v>
@@ -17187,13 +21447,13 @@
         <v>0</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>4939</v>
+        <v>6355</v>
       </c>
       <c r="B118" s="0">
         <v>0.5</v>
@@ -17202,13 +21462,13 @@
         <v>0</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E118" s="0"/>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>4940</v>
+        <v>6356</v>
       </c>
       <c r="B119" s="0">
         <v>3</v>
@@ -17217,13 +21477,13 @@
         <v>0</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>4941</v>
+        <v>6357</v>
       </c>
       <c r="B120" s="0">
         <v>1.3</v>
@@ -17232,15 +21492,15 @@
         <v>0</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>5052</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>4942</v>
+        <v>6358</v>
       </c>
       <c r="B121" s="0">
         <v>0.5</v>
@@ -17249,13 +21509,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E121" s="0"/>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>4943</v>
+        <v>6359</v>
       </c>
       <c r="B122" s="0">
         <v>4</v>
@@ -17264,13 +21524,13 @@
         <v>0</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E122" s="0"/>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>4944</v>
+        <v>6360</v>
       </c>
       <c r="B123" s="0">
         <v>2</v>
@@ -17279,13 +21539,13 @@
         <v>0</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E123" s="0"/>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>4945</v>
+        <v>6361</v>
       </c>
       <c r="B124" s="0">
         <v>0.40000000000000002</v>
@@ -17294,13 +21554,13 @@
         <v>0</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>4946</v>
+        <v>6362</v>
       </c>
       <c r="B125" s="0">
         <v>0.5</v>
@@ -17309,13 +21569,13 @@
         <v>0</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>4947</v>
+        <v>6363</v>
       </c>
       <c r="B126" s="0">
         <v>0.5</v>
@@ -17324,13 +21584,13 @@
         <v>0</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E126" s="0"/>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>4948</v>
+        <v>6364</v>
       </c>
       <c r="B127" s="0">
         <v>0.5</v>
@@ -17339,15 +21599,15 @@
         <v>0</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>5053</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>4949</v>
+        <v>6365</v>
       </c>
       <c r="B128" s="0">
         <v>0.5</v>
@@ -17356,15 +21616,15 @@
         <v>0</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>5054</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>4950</v>
+        <v>6366</v>
       </c>
       <c r="B129" s="0">
         <v>0.10000000000000001</v>
@@ -17373,15 +21633,15 @@
         <v>0</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>5055</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>4951</v>
+        <v>6367</v>
       </c>
       <c r="B130" s="0">
         <v>0.59999999999999998</v>
@@ -17390,15 +21650,15 @@
         <v>0</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>5056</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>4952</v>
+        <v>6368</v>
       </c>
       <c r="B131" s="0">
         <v>0.5</v>
@@ -17407,13 +21667,13 @@
         <v>0</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>4953</v>
+        <v>6369</v>
       </c>
       <c r="B132" s="0">
         <v>0.40000000000000002</v>
@@ -17422,13 +21682,13 @@
         <v>0</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E132" s="0"/>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>4954</v>
+        <v>6370</v>
       </c>
       <c r="B133" s="0">
         <v>0.20000000000000001</v>
@@ -17437,13 +21697,13 @@
         <v>0</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E133" s="0"/>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>4955</v>
+        <v>6371</v>
       </c>
       <c r="B134" s="0">
         <v>0</v>
@@ -17452,13 +21712,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E134" s="0"/>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>4956</v>
+        <v>6372</v>
       </c>
       <c r="B135" s="0">
         <v>2.5</v>
@@ -17467,13 +21727,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E135" s="0"/>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>4957</v>
+        <v>6373</v>
       </c>
       <c r="B136" s="0">
         <v>0.5</v>
@@ -17482,13 +21742,13 @@
         <v>0</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>4958</v>
+        <v>6374</v>
       </c>
       <c r="B137" s="0">
         <v>0.5</v>
@@ -17497,13 +21757,13 @@
         <v>0</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E137" s="0"/>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>4959</v>
+        <v>6375</v>
       </c>
       <c r="B138" s="0">
         <v>0.5</v>
@@ -17512,13 +21772,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E138" s="0"/>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>4960</v>
+        <v>6376</v>
       </c>
       <c r="B139" s="0">
         <v>0.5</v>
@@ -17527,13 +21787,13 @@
         <v>0</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E139" s="0"/>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>4961</v>
+        <v>6377</v>
       </c>
       <c r="B140" s="0">
         <v>1</v>
@@ -17542,13 +21802,13 @@
         <v>0</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E140" s="0"/>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>4962</v>
+        <v>6378</v>
       </c>
       <c r="B141" s="0">
         <v>0.90000000000000002</v>
@@ -17557,13 +21817,13 @@
         <v>0</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E141" s="0"/>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>4963</v>
+        <v>6379</v>
       </c>
       <c r="B142" s="0">
         <v>1</v>
@@ -17572,13 +21832,13 @@
         <v>0</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E142" s="0"/>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>4964</v>
+        <v>6380</v>
       </c>
       <c r="B143" s="0">
         <v>0</v>
@@ -17587,10 +21847,10 @@
         <v>1</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>4975</v>
+        <v>6391</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>5057</v>
+        <v>6473</v>
       </c>
     </row>
   </sheetData>

--- a/tables/createAutarky.xlsx
+++ b/tables/createAutarky.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69305" uniqueCount="44770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70667" uniqueCount="45661">
   <si>
     <t>Row</t>
   </si>
@@ -132991,6 +132991,2679 @@
   </si>
   <si>
     <t>ss_beq_to_bass</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_trm</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_trl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_trl2</t>
+  </si>
+  <si>
+    <t>rho_trl1</t>
+  </si>
+  <si>
+    <t>rho_trm</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_aq</t>
+  </si>
+  <si>
+    <t>gg_rho_aqq</t>
+  </si>
+  <si>
+    <t>iota_1</t>
+  </si>
+  <si>
+    <t>iota_2</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits Held by Households</t>
+  </si>
+  <si>
+    <t>Bank Loans to Households</t>
+  </si>
+  <si>
+    <t>Bank Capital</t>
+  </si>
+  <si>
+    <t>Household Credit Risk</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Variable Labor, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports, Free on Board at Destinatin Point</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Net Commdity Export to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>Bank Deposits Held by Government</t>
+  </si>
+  <si>
+    <t>Import Tariff Rate</t>
+  </si>
+  <si>
+    <t>Global Productivity Trend Component</t>
+  </si>
+  <si>
+    <t>Global Population Trend Component</t>
+  </si>
+  <si>
+    <t>Global Population</t>
+  </si>
+  <si>
+    <t>Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Long-Run Productivity in Commodity Extraction</t>
+  </si>
+  <si>
+    <t>Global Commodity Demand</t>
+  </si>
+  <si>
+    <t>Log Excess Demand in Commodity Market</t>
+  </si>
+  <si>
+    <t>Nominal Commodity Prices</t>
+  </si>
+  <si>
+    <t>Interest Parity Shock</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Share of Local Commodity Production in World Commodity Production</t>
+  </si>
+  <si>
+    <t>Adjustment Cost Parameter in Stage T-3 Production</t>
+  </si>
+  <si>
+    <t>S/S Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Autoregression in Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Excess Demand Elasticity of Commodity Prices</t>
+  </si>
+  <si>
+    <t>Commodity Supply Curvature</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>unc_r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bdh</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>roc_y3</t>
+  </si>
+  <si>
+    <t>roc_nv</t>
+  </si>
+  <si>
+    <t>roc_bl</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>fob_pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>netxq_to_ngdp</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>trl1</t>
+  </si>
+  <si>
+    <t>trl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>bdg</t>
+  </si>
+  <si>
+    <t>trm</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nt</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>gg_qq</t>
+  </si>
+  <si>
+    <t>gg_aq</t>
+  </si>
+  <si>
+    <t>gg_q</t>
+  </si>
+  <si>
+    <t>gg_qexc</t>
+  </si>
+  <si>
+    <t>gg_pq</t>
+  </si>
+  <si>
+    <t>gg_pxx</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_e</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_trl1</t>
+  </si>
+  <si>
+    <t>shk_trl2</t>
+  </si>
+  <si>
+    <t>shk_trm</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>gg_shk_aqq</t>
+  </si>
+  <si>
+    <t>gg_shk_pq</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>psi_r</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>ss_beq_to_bass</t>
+  </si>
+  <si>
+    <t>theta_3</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_trm</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_trl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_trl2</t>
+  </si>
+  <si>
+    <t>rho_trl1</t>
+  </si>
+  <si>
+    <t>rho_trm</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_aq</t>
+  </si>
+  <si>
+    <t>gg_rho_aqq</t>
+  </si>
+  <si>
+    <t>iota_1</t>
+  </si>
+  <si>
+    <t>iota_2</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits Held by Households</t>
+  </si>
+  <si>
+    <t>Bank Loans to Households</t>
+  </si>
+  <si>
+    <t>Bank Capital</t>
+  </si>
+  <si>
+    <t>Household Credit Risk</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Variable Labor, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports, Free on Board at Destinatin Point</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Net Commdity Export to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>Bank Deposits Held by Government</t>
+  </si>
+  <si>
+    <t>Import Tariff Rate</t>
+  </si>
+  <si>
+    <t>Global Productivity Trend Component</t>
+  </si>
+  <si>
+    <t>Global Population Trend Component</t>
+  </si>
+  <si>
+    <t>Global Population</t>
+  </si>
+  <si>
+    <t>Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Long-Run Productivity in Commodity Extraction</t>
+  </si>
+  <si>
+    <t>Global Commodity Demand</t>
+  </si>
+  <si>
+    <t>Log Excess Demand in Commodity Market</t>
+  </si>
+  <si>
+    <t>Nominal Commodity Prices</t>
+  </si>
+  <si>
+    <t>Interest Parity Shock</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Share of Local Commodity Production in World Commodity Production</t>
+  </si>
+  <si>
+    <t>Adjustment Cost Parameter in Stage T-3 Production</t>
+  </si>
+  <si>
+    <t>S/S Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Autoregression in Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Excess Demand Elasticity of Commodity Prices</t>
+  </si>
+  <si>
+    <t>Commodity Supply Curvature</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>unc_r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bdh</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>roc_y3</t>
+  </si>
+  <si>
+    <t>roc_nv</t>
+  </si>
+  <si>
+    <t>roc_bl</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>fob_pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>netxq_to_ngdp</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>trl1</t>
+  </si>
+  <si>
+    <t>trl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>bdg</t>
+  </si>
+  <si>
+    <t>trm</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nt</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>gg_qq</t>
+  </si>
+  <si>
+    <t>gg_aq</t>
+  </si>
+  <si>
+    <t>gg_q</t>
+  </si>
+  <si>
+    <t>gg_qexc</t>
+  </si>
+  <si>
+    <t>gg_pq</t>
+  </si>
+  <si>
+    <t>gg_pxx</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_e</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_trl1</t>
+  </si>
+  <si>
+    <t>shk_trl2</t>
+  </si>
+  <si>
+    <t>shk_trm</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>gg_shk_aqq</t>
+  </si>
+  <si>
+    <t>gg_shk_pq</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>psi_r</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>ss_beq_to_bass</t>
+  </si>
+  <si>
+    <t>theta_3</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma_xx</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>zeta_e</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>xi_y3</t>
+  </si>
+  <si>
+    <t>ss_dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_ncg_to_ngdp</t>
+  </si>
+  <si>
+    <t>ss_trm</t>
+  </si>
+  <si>
+    <t>tau_cg</t>
+  </si>
+  <si>
+    <t>tau_trl1</t>
+  </si>
+  <si>
+    <t>rho_cg</t>
+  </si>
+  <si>
+    <t>rho_trl2</t>
+  </si>
+  <si>
+    <t>rho_trl1</t>
+  </si>
+  <si>
+    <t>rho_trm</t>
+  </si>
+  <si>
+    <t>gg_rho_a</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_a</t>
+  </si>
+  <si>
+    <t>gg_rho_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_roc_nn</t>
+  </si>
+  <si>
+    <t>gg_ss_aq</t>
+  </si>
+  <si>
+    <t>gg_rho_aqq</t>
+  </si>
+  <si>
+    <t>iota_1</t>
+  </si>
+  <si>
+    <t>iota_2</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Working Age Population</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Real Discount Factor</t>
+  </si>
+  <si>
+    <t>Private Consumption</t>
+  </si>
+  <si>
+    <t>Private Consumption, Point of Reference</t>
+  </si>
+  <si>
+    <t>Per-Capita Labor Supply</t>
+  </si>
+  <si>
+    <t>Variable Labor</t>
+  </si>
+  <si>
+    <t>Private Investment</t>
+  </si>
+  <si>
+    <t>Production Capital</t>
+  </si>
+  <si>
+    <t>Production Capital, Point of Reference</t>
+  </si>
+  <si>
+    <t>Production Capital Services</t>
+  </si>
+  <si>
+    <t>Household Net Worth</t>
+  </si>
+  <si>
+    <t>Domestic Technology Level</t>
+  </si>
+  <si>
+    <t>Shadow Value of Household Budget Constraing</t>
+  </si>
+  <si>
+    <t>Price of Private Consumption</t>
+  </si>
+  <si>
+    <t>Price of Private Investment</t>
+  </si>
+  <si>
+    <t>Domestic Intermediate Inputs</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Stage T-2 Output</t>
+  </si>
+  <si>
+    <t>Stage T-1 Output</t>
+  </si>
+  <si>
+    <t>Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-3 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-2 Output</t>
+  </si>
+  <si>
+    <t>Price of State T-1 Output</t>
+  </si>
+  <si>
+    <t>Price of Stage T-0 Output</t>
+  </si>
+  <si>
+    <t>Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Price of Commodity Input into Production</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>Price of Domestic Production</t>
+  </si>
+  <si>
+    <t>Price of Production Capital</t>
+  </si>
+  <si>
+    <t>Price of Production Capital Services</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Money Market Rate</t>
+  </si>
+  <si>
+    <t>Nominal Local Currency Household Lending Rate</t>
+  </si>
+  <si>
+    <t>Bank Deposits Held by Households</t>
+  </si>
+  <si>
+    <t>Bank Loans to Households</t>
+  </si>
+  <si>
+    <t>Bank Capital</t>
+  </si>
+  <si>
+    <t>Household Credit Risk</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Final Domestic Output, Rate of Change, Point of Reference</t>
+  </si>
+  <si>
+    <t>Nominal Wage Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Price of Consumer Goods, Rate of Change</t>
+  </si>
+  <si>
+    <t>Household Investment, Rate of Change</t>
+  </si>
+  <si>
+    <t>Capital Utilization Rate</t>
+  </si>
+  <si>
+    <t>Household Capital, Rate of Change</t>
+  </si>
+  <si>
+    <t>Stage T-3 Output, Rate of Change</t>
+  </si>
+  <si>
+    <t>Variable Labor, Rate of Change</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Government Consumption</t>
+  </si>
+  <si>
+    <t>Domestic Component of Private Investment</t>
+  </si>
+  <si>
+    <t>Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Imports, Free on Board at Destinatin Point</t>
+  </si>
+  <si>
+    <t>Import Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Intermediate Import Inputs into Domestic Production</t>
+  </si>
+  <si>
+    <t>Domestic Content of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Price of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Effective Interest Rate and Valuation on NFA</t>
+  </si>
+  <si>
+    <t>Checksum for Net Foreign Assets to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Expectations of Nominal Exchange Rate</t>
+  </si>
+  <si>
+    <t>Nominal Exchange Rate, Rate of Change</t>
+  </si>
+  <si>
+    <t>Net Commdity Export to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Government Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Price of Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Consumption</t>
+  </si>
+  <si>
+    <t>Government Debt to GDP Ratio</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Wealthy Consumers</t>
+  </si>
+  <si>
+    <t>Net Lump-Sum Tax Rate on Poor Consumers</t>
+  </si>
+  <si>
+    <t>Government Consumption, Rate of Change</t>
+  </si>
+  <si>
+    <t>Bank Deposits Held by Government</t>
+  </si>
+  <si>
+    <t>Import Tariff Rate</t>
+  </si>
+  <si>
+    <t>Global Productivity Trend Component</t>
+  </si>
+  <si>
+    <t>Global Population Trend Component</t>
+  </si>
+  <si>
+    <t>Global Population</t>
+  </si>
+  <si>
+    <t>Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Long-Run Productivity in Commodity Extraction</t>
+  </si>
+  <si>
+    <t>Global Commodity Demand</t>
+  </si>
+  <si>
+    <t>Log Excess Demand in Commodity Market</t>
+  </si>
+  <si>
+    <t>Nominal Commodity Prices</t>
+  </si>
+  <si>
+    <t>Interest Parity Shock</t>
+  </si>
+  <si>
+    <t>S/S Population, Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>S/S Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>S/S Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Autoregression in Total Population Relative to Global Population Component</t>
+  </si>
+  <si>
+    <t>Autoregression in Share of Working Age Population in Total Population</t>
+  </si>
+  <si>
+    <t>Autoregression in Labor Participation Rate</t>
+  </si>
+  <si>
+    <t>Markup to Cover Overhead Labor</t>
+  </si>
+  <si>
+    <t>Import Intensity of Non-Commodity Exports</t>
+  </si>
+  <si>
+    <t>Acceleration in Exportable Productivity</t>
+  </si>
+  <si>
+    <t>Elasticity of Household Lending Rate to Risk</t>
+  </si>
+  <si>
+    <t>Weight on Model-Consistent Expectations in Exchange Rate</t>
+  </si>
+  <si>
+    <t>Share of Local Commodity Production in World Commodity Production</t>
+  </si>
+  <si>
+    <t>Adjustment Cost Parameter in Stage T-3 Production</t>
+  </si>
+  <si>
+    <t>S/S Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Autoregression in Long-Run Level of Global Commodity Production</t>
+  </si>
+  <si>
+    <t>Excess Demand Elasticity of Commodity Prices</t>
+  </si>
+  <si>
+    <t>Commodity Supply Curvature</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ref_ch</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ref_k</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>netw</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>pih</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>py3</t>
+  </si>
+  <si>
+    <t>py2</t>
+  </si>
+  <si>
+    <t>py1</t>
+  </si>
+  <si>
+    <t>py0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>ngdp</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>puk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>unc_r</t>
+  </si>
+  <si>
+    <t>rbl</t>
+  </si>
+  <si>
+    <t>bdh</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>ref_roc_py</t>
+  </si>
+  <si>
+    <t>roc_w</t>
+  </si>
+  <si>
+    <t>roc_pch</t>
+  </si>
+  <si>
+    <t>roc_ih</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>roc_k</t>
+  </si>
+  <si>
+    <t>roc_y3</t>
+  </si>
+  <si>
+    <t>roc_nv</t>
+  </si>
+  <si>
+    <t>roc_bl</t>
+  </si>
+  <si>
+    <t>ych</t>
+  </si>
+  <si>
+    <t>ycg</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>pmm</t>
+  </si>
+  <si>
+    <t>fob_pmm</t>
+  </si>
+  <si>
+    <t>mxx</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yxx</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>pxx</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp</t>
+  </si>
+  <si>
+    <t>rnfa</t>
+  </si>
+  <si>
+    <t>nfa_to_ngdp_checksum</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>exp_e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>netxq_to_ngdp</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>dg_to_ngdp</t>
+  </si>
+  <si>
+    <t>trl1</t>
+  </si>
+  <si>
+    <t>trl2</t>
+  </si>
+  <si>
+    <t>roc_cg</t>
+  </si>
+  <si>
+    <t>bdg</t>
+  </si>
+  <si>
+    <t>trm</t>
+  </si>
+  <si>
+    <t>gg_a</t>
+  </si>
+  <si>
+    <t>gg_nt</t>
+  </si>
+  <si>
+    <t>gg_nn</t>
+  </si>
+  <si>
+    <t>gg_qq</t>
+  </si>
+  <si>
+    <t>gg_aq</t>
+  </si>
+  <si>
+    <t>gg_q</t>
+  </si>
+  <si>
+    <t>gg_qexc</t>
+  </si>
+  <si>
+    <t>gg_pq</t>
+  </si>
+  <si>
+    <t>gg_pxx</t>
+  </si>
+  <si>
+    <t>shk_nr</t>
+  </si>
+  <si>
+    <t>shk_nw_to_nn</t>
+  </si>
+  <si>
+    <t>shk_nf_to_nw</t>
+  </si>
+  <si>
+    <t>shk_ar</t>
+  </si>
+  <si>
+    <t>shk_r</t>
+  </si>
+  <si>
+    <t>shk_w</t>
+  </si>
+  <si>
+    <t>shk_curr</t>
+  </si>
+  <si>
+    <t>shk_e</t>
+  </si>
+  <si>
+    <t>shk_cg</t>
+  </si>
+  <si>
+    <t>shk_trl1</t>
+  </si>
+  <si>
+    <t>shk_trl2</t>
+  </si>
+  <si>
+    <t>shk_trm</t>
+  </si>
+  <si>
+    <t>gg_shk_a</t>
+  </si>
+  <si>
+    <t>gg_shk_nn</t>
+  </si>
+  <si>
+    <t>gg_shk_aqq</t>
+  </si>
+  <si>
+    <t>gg_shk_pq</t>
+  </si>
+  <si>
+    <t>ss_nr</t>
+  </si>
+  <si>
+    <t>ss_nw_to_nn</t>
+  </si>
+  <si>
+    <t>ss_nf_to_nw</t>
+  </si>
+  <si>
+    <t>rho_nr</t>
+  </si>
+  <si>
+    <t>rho_nw</t>
+  </si>
+  <si>
+    <t>rho_nf</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>rho_ar</t>
+  </si>
+  <si>
+    <t>chi_curr</t>
+  </si>
+  <si>
+    <t>chi_ch</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>nu_0</t>
+  </si>
+  <si>
+    <t>nu_1</t>
+  </si>
+  <si>
+    <t>xi_k</t>
+  </si>
+  <si>
+    <t>xi_ih</t>
+  </si>
+  <si>
+    <t>upsilon_0</t>
+  </si>
+  <si>
+    <t>upsilon_1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>beta_k</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma_n0</t>
+  </si>
+  <si>
+    <t>gamma_n</t>
+  </si>
+  <si>
+    <t>gamma_uk</t>
+  </si>
+  <si>
+    <t>gamma_q</t>
+  </si>
+  <si>
+    <t>gamma_z</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho_w</t>
+  </si>
+  <si>
+    <t>kappa_1</t>
+  </si>
+  <si>
+    <t>kappa_2</t>
+  </si>
+  <si>
+    <t>ss_ar</t>
+  </si>
+  <si>
+    <t>ss_roc_pch</t>
+  </si>
+  <si>
+    <t>xi_py</t>
+  </si>
+  <si>
+    <t>mu_py</t>
+  </si>
+  <si>
+    <t>rho_r</t>
+  </si>
+  <si>
+    <t>psi_pch</t>
+  </si>
+  <si>
+    <t>psi_r</t>
+  </si>
+  <si>
+    <t>mu_y3</t>
+  </si>
+  <si>
+    <t>zeta_py</t>
+  </si>
+  <si>
+    <t>xi_ch0</t>
+  </si>
+  <si>
+    <t>xi_ch1</t>
+  </si>
+  <si>
+    <t>xi_ch2</t>
+  </si>
+  <si>
+    <t>xi_y2</t>
+  </si>
+  <si>
+    <t>xi_y1</t>
+  </si>
+  <si>
+    <t>ss_beq_to_bass</t>
+  </si>
+  <si>
+    <t>theta_3</t>
   </si>
   <si>
     <t>alpha</t>
@@ -134343,7 +137016,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="172">
     <border>
       <left/>
       <right/>
@@ -134519,11 +137192,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -134693,6 +137369,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134714,24 +137393,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>44473</v>
+        <v>45364</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44647</v>
+        <v>45538</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44648</v>
+        <v>45539</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44649</v>
+        <v>45540</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44666</v>
+        <v>45557</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44474</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -134740,15 +137419,15 @@
         <v>1.01</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44667</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44475</v>
+        <v>45366</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -134757,15 +137436,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44668</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44476</v>
+        <v>45367</v>
       </c>
       <c r="B4" s="0">
         <v>0.65000000000000002</v>
@@ -134774,66 +137453,66 @@
         <v>1.01</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44669</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44477</v>
+        <v>45368</v>
       </c>
       <c r="B5" s="0">
         <v>0.45499999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>1.0099999999999998</v>
+        <v>1.01</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44670</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>44478</v>
+        <v>45369</v>
       </c>
       <c r="B6" s="0">
-        <v>0.97999999999999976</v>
+        <v>0.97999999999999943</v>
       </c>
       <c r="C6" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44671</v>
+        <v>45562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44479</v>
+        <v>45370</v>
       </c>
       <c r="B7" s="0">
-        <v>0.44060489348133425</v>
+        <v>0.44060489348133453</v>
       </c>
       <c r="C7" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44672</v>
+        <v>45563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44480</v>
+        <v>45371</v>
       </c>
       <c r="B8" s="0">
         <v>0.22098461538461525</v>
@@ -134842,134 +137521,134 @@
         <v>1.0100000000000002</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44673</v>
+        <v>45564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44481</v>
+        <v>45372</v>
       </c>
       <c r="B9" s="0">
-        <v>0.83591375801025924</v>
+        <v>0.83591375801025891</v>
       </c>
       <c r="C9" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>44674</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44482</v>
+        <v>45373</v>
       </c>
       <c r="B10" s="0">
-        <v>0.2535605065964453</v>
+        <v>0.25356050659644525</v>
       </c>
       <c r="C10" s="0">
         <v>1.01</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44675</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44483</v>
+        <v>45374</v>
       </c>
       <c r="B11" s="0">
-        <v>0.14659510651866575</v>
+        <v>0.1465951065186655</v>
       </c>
       <c r="C11" s="0">
-        <v>1.0100000000000002</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44676</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>44484</v>
+        <v>45375</v>
       </c>
       <c r="B12" s="0">
-        <v>0.92538160989907547</v>
+        <v>0.92538160989907481</v>
       </c>
       <c r="C12" s="0">
-        <v>1.0100000000000005</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>44677</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>44485</v>
+        <v>45376</v>
       </c>
       <c r="B13" s="0">
-        <v>0.92538160989907547</v>
+        <v>0.92538160989907492</v>
       </c>
       <c r="C13" s="0">
-        <v>1.0100000000000005</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>44678</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>44486</v>
+        <v>45377</v>
       </c>
       <c r="B14" s="0">
-        <v>0.92538160989907547</v>
+        <v>0.92538160989907481</v>
       </c>
       <c r="C14" s="0">
-        <v>1.0100000000000005</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>44679</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44487</v>
+        <v>45378</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1253816098990757</v>
+        <v>1.1253816098990748</v>
       </c>
       <c r="C15" s="0">
         <v>1.0100000000000002</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>44680</v>
+        <v>45571</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>44488</v>
+        <v>45379</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -134978,32 +137657,32 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>44681</v>
+        <v>45572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>44489</v>
+        <v>45380</v>
       </c>
       <c r="B17" s="0">
-        <v>1.0326712361384056</v>
+        <v>1.0326712361384049</v>
       </c>
       <c r="C17" s="0">
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>44682</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44490</v>
+        <v>45381</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -135012,15 +137691,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>44683</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44491</v>
+        <v>45382</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -135029,151 +137708,151 @@
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>44684</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44492</v>
+        <v>45383</v>
       </c>
       <c r="B20" s="0">
-        <v>1.1999999999999997</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="C20" s="0">
         <v>1.0100000000000002</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>44685</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>44493</v>
+        <v>45384</v>
       </c>
       <c r="B21" s="0">
-        <v>0.41762488204538994</v>
+        <v>0.41762488204539039</v>
       </c>
       <c r="C21" s="0">
         <v>1.01</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>44686</v>
+        <v>45577</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>44494</v>
+        <v>45385</v>
       </c>
       <c r="B22" s="0">
-        <v>0.97665619937621695</v>
+        <v>0.9766561993762175</v>
       </c>
       <c r="C22" s="0">
         <v>1.0100000000000002</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>44687</v>
+        <v>45578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44495</v>
+        <v>45386</v>
       </c>
       <c r="B23" s="0">
-        <v>1.0152469650287066</v>
+        <v>1.0152469650287073</v>
       </c>
       <c r="C23" s="0">
         <v>1.0100000000000002</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>44688</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>44496</v>
+        <v>45387</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>44689</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44497</v>
+        <v>45388</v>
       </c>
       <c r="B25" s="0">
-        <v>1.2738704585666401</v>
+        <v>1.2738704585666389</v>
       </c>
       <c r="C25" s="0">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>44690</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44498</v>
+        <v>45389</v>
       </c>
       <c r="B26" s="0">
-        <v>0.7781653364668204</v>
+        <v>0.77816533646681996</v>
       </c>
       <c r="C26" s="0">
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>44691</v>
+        <v>45582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44499</v>
+        <v>45390</v>
       </c>
       <c r="B27" s="0">
-        <v>0.78798561094677055</v>
+        <v>0.78798561094677022</v>
       </c>
       <c r="C27" s="0">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>44692</v>
+        <v>45583</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44500</v>
+        <v>45391</v>
       </c>
       <c r="B28" s="0">
         <v>0.90909090909090906</v>
@@ -135182,32 +137861,32 @@
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>44693</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44501</v>
+        <v>45392</v>
       </c>
       <c r="B29" s="0">
         <v>0.040000000000000008</v>
       </c>
       <c r="C29" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>44694</v>
+        <v>45585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>44502</v>
+        <v>45393</v>
       </c>
       <c r="B30" s="0">
         <v>0.99999999999999978</v>
@@ -135216,32 +137895,32 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>44695</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>44503</v>
+        <v>45394</v>
       </c>
       <c r="B31" s="0">
         <v>1</v>
       </c>
       <c r="C31" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>44696</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>44504</v>
+        <v>45395</v>
       </c>
       <c r="B32" s="0">
         <v>1</v>
@@ -135250,15 +137929,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>44697</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>44505</v>
+        <v>45396</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -135267,181 +137946,181 @@
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>44698</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>44506</v>
+        <v>45397</v>
       </c>
       <c r="B34" s="0">
-        <v>0.24638484011462708</v>
+        <v>0.2463848401146273</v>
       </c>
       <c r="C34" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>44699</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>44507</v>
+        <v>45398</v>
       </c>
       <c r="B35" s="0">
-        <v>0.96836240325567968</v>
+        <v>0.96836240325568046</v>
       </c>
       <c r="C35" s="0">
         <v>1.0000000000000002</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>44700</v>
+        <v>45591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>44508</v>
+        <v>45399</v>
       </c>
       <c r="B36" s="0">
-        <v>0.96836240325567979</v>
+        <v>0.96836240325568046</v>
       </c>
       <c r="C36" s="0">
         <v>1.0000000000000002</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>44509</v>
+        <v>45400</v>
       </c>
       <c r="B37" s="0">
-        <v>1.0164131021577829</v>
+        <v>1.0164131021577831</v>
       </c>
       <c r="C37" s="0">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>44701</v>
+        <v>45592</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>44510</v>
+        <v>45401</v>
       </c>
       <c r="B38" s="0">
-        <v>1.0164131021577829</v>
+        <v>1.0164131021577834</v>
       </c>
       <c r="C38" s="0">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>44511</v>
+        <v>45402</v>
       </c>
       <c r="B39" s="0">
-        <v>1.0164131021577829</v>
+        <v>1.0164131021577834</v>
       </c>
       <c r="C39" s="0">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>44702</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>44512</v>
+        <v>45403</v>
       </c>
       <c r="B40" s="0">
         <v>0.67973816098990747</v>
       </c>
       <c r="C40" s="0">
-        <v>1.0100000000000002</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>44703</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>44513</v>
+        <v>45404</v>
       </c>
       <c r="B41" s="0">
-        <v>0.57748684554434171</v>
+        <v>0.5774868455443416</v>
       </c>
       <c r="C41" s="0">
-        <v>1.0100000000000002</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>44704</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>44514</v>
+        <v>45405</v>
       </c>
       <c r="B42" s="0">
-        <v>0.097748684554434195</v>
+        <v>0.09774868455443414</v>
       </c>
       <c r="C42" s="0">
-        <v>1.0100000000000002</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>44650</v>
+        <v>45541</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>44705</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>44515</v>
+        <v>45406</v>
       </c>
       <c r="B43" s="0">
-        <v>1.3435793102013262e-26</v>
+        <v>-4.2038099866037244e-26</v>
       </c>
       <c r="C43" s="0">
-        <v>-3.0661018697214708e-27</v>
+        <v>1.8074604306690853e-26</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>44651</v>
+        <v>45542</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>44706</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>44516</v>
+        <v>45407</v>
       </c>
       <c r="B44" s="0">
         <v>1</v>
@@ -135450,49 +138129,49 @@
         <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>44707</v>
+        <v>45598</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>44517</v>
+        <v>45408</v>
       </c>
       <c r="B45" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="C45" s="0">
         <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>44708</v>
+        <v>45599</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>44518</v>
+        <v>45409</v>
       </c>
       <c r="B46" s="0">
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C46" s="0">
         <v>1</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>44709</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>44519</v>
+        <v>45410</v>
       </c>
       <c r="B47" s="0">
         <v>1</v>
@@ -135501,32 +138180,32 @@
         <v>1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>44710</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>44520</v>
+        <v>45411</v>
       </c>
       <c r="B48" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000007</v>
       </c>
       <c r="C48" s="0">
         <v>1</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>44711</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>44521</v>
+        <v>45412</v>
       </c>
       <c r="B49" s="0">
         <v>1</v>
@@ -135535,32 +138214,32 @@
         <v>1</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>44712</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>44522</v>
+        <v>45413</v>
       </c>
       <c r="B50" s="0">
-        <v>1.0100000000000005</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="C50" s="0">
         <v>1</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>44713</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>44523</v>
+        <v>45414</v>
       </c>
       <c r="B51" s="0">
         <v>1.0100000000000002</v>
@@ -135569,285 +138248,285 @@
         <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>44714</v>
+        <v>45605</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>44524</v>
+        <v>45415</v>
       </c>
       <c r="B52" s="0">
-        <v>1.01</v>
+        <v>1.0099999999999998</v>
       </c>
       <c r="C52" s="0">
         <v>1</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>44715</v>
+        <v>45606</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>44525</v>
+        <v>45416</v>
       </c>
       <c r="B53" s="0">
-        <v>1.0100000000000002</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="C53" s="0">
         <v>1</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>44526</v>
+        <v>45417</v>
       </c>
       <c r="B54" s="0">
-        <v>0.4406048934813343</v>
+        <v>0.44060489348133453</v>
       </c>
       <c r="C54" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>44716</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>44527</v>
+        <v>45418</v>
       </c>
       <c r="B55" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C55" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>44717</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>44528</v>
+        <v>45419</v>
       </c>
       <c r="B56" s="0">
-        <v>0.14659510651866575</v>
+        <v>0.1465951065186655</v>
       </c>
       <c r="C56" s="0">
-        <v>1.0100000000000002</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>44718</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>44529</v>
+        <v>45420</v>
       </c>
       <c r="B57" s="0">
         <v>0.42559999999999998</v>
       </c>
       <c r="C57" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>44719</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>44530</v>
+        <v>45421</v>
       </c>
       <c r="B58" s="0">
         <v>0.99999999999999978</v>
       </c>
       <c r="C58" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>44720</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>44531</v>
+        <v>45422</v>
       </c>
       <c r="B59" s="0">
         <v>0.99999999999999978</v>
       </c>
       <c r="C59" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>44721</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>44532</v>
+        <v>45423</v>
       </c>
       <c r="B60" s="0">
-        <v>0.21280000000000002</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="C60" s="0">
         <v>1.01</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>44722</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>44533</v>
+        <v>45424</v>
       </c>
       <c r="B61" s="0">
         <v>0.21280000000000002</v>
       </c>
       <c r="C61" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>44723</v>
+        <v>45614</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>44534</v>
+        <v>45425</v>
       </c>
       <c r="B62" s="0">
-        <v>0.21279999999999993</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="C62" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>44724</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>44535</v>
+        <v>45426</v>
       </c>
       <c r="B63" s="0">
-        <v>0.42559999999999998</v>
+        <v>0.42560000000000003</v>
       </c>
       <c r="C63" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>44725</v>
+        <v>45616</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>44536</v>
+        <v>45427</v>
       </c>
       <c r="B64" s="0">
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C64" s="0">
         <v>1.0000000000000002</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>44652</v>
+        <v>45543</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>44726</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>44537</v>
+        <v>45428</v>
       </c>
       <c r="B65" s="0">
-        <v>-3.3746437645647027e-27</v>
+        <v>-5.491426059632146e-26</v>
       </c>
       <c r="C65" s="0">
-        <v>1.9573810710615655e-27</v>
+        <v>9.5077943231931003e-27</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>44653</v>
+        <v>45544</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>44727</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>44538</v>
+        <v>45429</v>
       </c>
       <c r="B66" s="0">
-        <v>1.0164131021577829</v>
+        <v>1.0164131021577834</v>
       </c>
       <c r="C66" s="0">
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>44654</v>
+        <v>45545</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>44728</v>
+        <v>45619</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>44539</v>
+        <v>45430</v>
       </c>
       <c r="B67" s="0">
-        <v>-5.4167195609132482e-27</v>
+        <v>3.6555784543496571e-26</v>
       </c>
       <c r="C67" s="0">
-        <v>7.4069832933322943e-27</v>
+        <v>-3.7301906419756463e-27</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>44655</v>
+        <v>45546</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>44729</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>44540</v>
+        <v>45431</v>
       </c>
       <c r="B68" s="0">
         <v>1</v>
@@ -135856,15 +138535,15 @@
         <v>1</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>44656</v>
+        <v>45547</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>44730</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>44541</v>
+        <v>45432</v>
       </c>
       <c r="B69" s="0">
         <v>1</v>
@@ -135873,15 +138552,15 @@
         <v>1</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>44656</v>
+        <v>45547</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>44731</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>44542</v>
+        <v>45433</v>
       </c>
       <c r="B70" s="0">
         <v>1</v>
@@ -135890,49 +138569,49 @@
         <v>1</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>44656</v>
+        <v>45547</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>44732</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>44543</v>
+        <v>45434</v>
       </c>
       <c r="B71" s="0">
-        <v>-2.4354830934351527e-26</v>
+        <v>3.5317117454514434e-26</v>
       </c>
       <c r="C71" s="0">
-        <v>8.4762945003518131e-27</v>
+        <v>-1.4104419325731302e-26</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>44657</v>
+        <v>45548</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>44733</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>44544</v>
+        <v>45435</v>
       </c>
       <c r="B72" s="0">
-        <v>1.0164131021577829</v>
+        <v>1.0164131021577834</v>
       </c>
       <c r="C72" s="0">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>44658</v>
+        <v>45549</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>44734</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>44545</v>
+        <v>45436</v>
       </c>
       <c r="B73" s="0">
         <v>1</v>
@@ -135941,202 +138620,202 @@
         <v>1</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>44658</v>
+        <v>45549</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>44735</v>
+        <v>45626</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>44546</v>
+        <v>45437</v>
       </c>
       <c r="B74" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C74" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>44658</v>
+        <v>45549</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>44736</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>44547</v>
+        <v>45438</v>
       </c>
       <c r="B75" s="0">
         <v>0.40000000000000002</v>
       </c>
       <c r="C75" s="0">
-        <v>-1.4045957013825664e-19</v>
+        <v>3.613190374546687e-18</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>44659</v>
+        <v>45550</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>44737</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>44548</v>
+        <v>45439</v>
       </c>
       <c r="B76" s="0">
-        <v>0.4596858669417076</v>
+        <v>0.45968586694170743</v>
       </c>
       <c r="C76" s="0">
-        <v>-4.1678605043208973e-17</v>
+        <v>4.5979586520552849e-17</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>44659</v>
+        <v>45550</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>44738</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>44549</v>
+        <v>45440</v>
       </c>
       <c r="B77" s="0">
-        <v>2.025526881925314e-26</v>
+        <v>5.9448935328966586e-27</v>
       </c>
       <c r="C77" s="0">
-        <v>-4.0628353974682552e-27</v>
+        <v>5.9342888969020904e-28</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>44659</v>
+        <v>45550</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>44739</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>44550</v>
+        <v>45441</v>
       </c>
       <c r="B78" s="0">
-        <v>1.0100000000000002</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="C78" s="0">
         <v>1</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>44660</v>
+        <v>45551</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>44740</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>44551</v>
+        <v>45442</v>
       </c>
       <c r="B79" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C79" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000005</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>44660</v>
+        <v>45551</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>44741</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>44552</v>
+        <v>45443</v>
       </c>
       <c r="B80" s="0">
-        <v>-1.7484015521642285e-26</v>
+        <v>-1.0776590237284354e-26</v>
       </c>
       <c r="C80" s="0">
-        <v>8.0746526259987504e-27</v>
+        <v>6.109532899453103e-27</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>44661</v>
+        <v>45552</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>44742</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>44553</v>
+        <v>45444</v>
       </c>
       <c r="B81" s="0">
-        <v>0.84095449196731176</v>
+        <v>0.84095449196731376</v>
       </c>
       <c r="C81" s="0">
         <v>1</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>44662</v>
+        <v>45553</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>44743</v>
+        <v>45634</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>44554</v>
+        <v>45445</v>
       </c>
       <c r="B82" s="0">
         <v>1</v>
       </c>
       <c r="C82" s="0">
-        <v>1.01</v>
+        <v>1.0099999999999998</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>44662</v>
+        <v>45553</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>44744</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>44555</v>
+        <v>45446</v>
       </c>
       <c r="B83" s="0">
         <v>1</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0099999999999998</v>
+        <v>1.01</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>44662</v>
+        <v>45553</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>44745</v>
+        <v>45636</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>44556</v>
+        <v>45447</v>
       </c>
       <c r="B84" s="0">
         <v>0.040000000000000008</v>
       </c>
       <c r="C84" s="0">
-        <v>1.01</v>
+        <v>1.0100000000000002</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>44662</v>
+        <v>45553</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>44746</v>
+        <v>45637</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>44557</v>
+        <v>45448</v>
       </c>
       <c r="B85" s="0">
         <v>1</v>
@@ -136145,15 +138824,15 @@
         <v>1</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>44662</v>
+        <v>45553</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>44747</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>44558</v>
+        <v>45449</v>
       </c>
       <c r="B86" s="0">
         <v>0.040000000000000008</v>
@@ -136162,49 +138841,49 @@
         <v>1.0100000000000002</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>44662</v>
+        <v>45553</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>44748</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>44559</v>
+        <v>45450</v>
       </c>
       <c r="B87" s="0">
-        <v>5.4494797873983287e-27</v>
+        <v>-1.3179284017234307e-27</v>
       </c>
       <c r="C87" s="0">
-        <v>-1.8164932624656199e-27</v>
+        <v>4.3930946725681683e-28</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>44663</v>
+        <v>45554</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>44749</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>44560</v>
+        <v>45451</v>
       </c>
       <c r="B88" s="0">
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C88" s="0">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>44664</v>
+        <v>45555</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>44750</v>
+        <v>45641</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>44561</v>
+        <v>45452</v>
       </c>
       <c r="B89" s="0">
         <v>0.99999999999999978</v>
@@ -136213,13 +138892,13 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>44664</v>
+        <v>45555</v>
       </c>
       <c r="E89" s="0"/>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>44562</v>
+        <v>45453</v>
       </c>
       <c r="B90" s="0">
         <v>0</v>
@@ -136228,13 +138907,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E90" s="0"/>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>44563</v>
+        <v>45454</v>
       </c>
       <c r="B91" s="0">
         <v>0</v>
@@ -136243,13 +138922,13 @@
         <v>0</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E91" s="0"/>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>44564</v>
+        <v>45455</v>
       </c>
       <c r="B92" s="0">
         <v>0</v>
@@ -136258,13 +138937,13 @@
         <v>0</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>44565</v>
+        <v>45456</v>
       </c>
       <c r="B93" s="0">
         <v>0</v>
@@ -136273,13 +138952,13 @@
         <v>0</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>44566</v>
+        <v>45457</v>
       </c>
       <c r="B94" s="0">
         <v>0</v>
@@ -136288,13 +138967,13 @@
         <v>0</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>44567</v>
+        <v>45458</v>
       </c>
       <c r="B95" s="0">
         <v>0</v>
@@ -136303,13 +138982,13 @@
         <v>0</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>44568</v>
+        <v>45459</v>
       </c>
       <c r="B96" s="0">
         <v>0</v>
@@ -136318,13 +138997,13 @@
         <v>0</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E96" s="0"/>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>44569</v>
+        <v>45460</v>
       </c>
       <c r="B97" s="0">
         <v>0</v>
@@ -136333,15 +139012,15 @@
         <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>44751</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>44570</v>
+        <v>45461</v>
       </c>
       <c r="B98" s="0">
         <v>0</v>
@@ -136350,13 +139029,13 @@
         <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E98" s="0"/>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>44571</v>
+        <v>45462</v>
       </c>
       <c r="B99" s="0">
         <v>0</v>
@@ -136365,13 +139044,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E99" s="0"/>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>44572</v>
+        <v>45463</v>
       </c>
       <c r="B100" s="0">
         <v>0</v>
@@ -136380,13 +139059,13 @@
         <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>44573</v>
+        <v>45464</v>
       </c>
       <c r="B101" s="0">
         <v>0</v>
@@ -136395,13 +139074,13 @@
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>44574</v>
+        <v>45465</v>
       </c>
       <c r="B102" s="0">
         <v>0</v>
@@ -136410,13 +139089,13 @@
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>44575</v>
+        <v>45466</v>
       </c>
       <c r="B103" s="0">
         <v>0</v>
@@ -136425,13 +139104,13 @@
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>44576</v>
+        <v>45467</v>
       </c>
       <c r="B104" s="0">
         <v>0</v>
@@ -136440,13 +139119,13 @@
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E104" s="0"/>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>44577</v>
+        <v>45468</v>
       </c>
       <c r="B105" s="0">
         <v>0</v>
@@ -136455,13 +139134,13 @@
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E105" s="0"/>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>44578</v>
+        <v>45469</v>
       </c>
       <c r="B106" s="0">
         <v>1</v>
@@ -136470,15 +139149,15 @@
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>44752</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>44579</v>
+        <v>45470</v>
       </c>
       <c r="B107" s="0">
         <v>0.65000000000000002</v>
@@ -136487,15 +139166,15 @@
         <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>44753</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>44580</v>
+        <v>45471</v>
       </c>
       <c r="B108" s="0">
         <v>0.69999999999999996</v>
@@ -136504,15 +139183,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>44754</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>44581</v>
+        <v>45472</v>
       </c>
       <c r="B109" s="0">
         <v>0.90000000000000002</v>
@@ -136521,15 +139200,15 @@
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>44755</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>44582</v>
+        <v>45473</v>
       </c>
       <c r="B110" s="0">
         <v>0.90000000000000002</v>
@@ -136538,15 +139217,15 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>44756</v>
+        <v>45647</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>44583</v>
+        <v>45474</v>
       </c>
       <c r="B111" s="0">
         <v>0.5</v>
@@ -136555,15 +139234,15 @@
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>44757</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>44584</v>
+        <v>45475</v>
       </c>
       <c r="B112" s="0">
         <v>1</v>
@@ -136572,13 +139251,13 @@
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E112" s="0"/>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>44585</v>
+        <v>45476</v>
       </c>
       <c r="B113" s="0">
         <v>0.5</v>
@@ -136587,13 +139266,13 @@
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E113" s="0"/>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>44586</v>
+        <v>45477</v>
       </c>
       <c r="B114" s="0">
         <v>0.59999999999999998</v>
@@ -136602,13 +139281,13 @@
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E114" s="0"/>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>44587</v>
+        <v>45478</v>
       </c>
       <c r="B115" s="0">
         <v>0</v>
@@ -136617,13 +139296,13 @@
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E115" s="0"/>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>44588</v>
+        <v>45479</v>
       </c>
       <c r="B116" s="0">
         <v>1</v>
@@ -136632,13 +139311,13 @@
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E116" s="0"/>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>44589</v>
+        <v>45480</v>
       </c>
       <c r="B117" s="0">
         <v>0</v>
@@ -136647,13 +139326,13 @@
         <v>0</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E117" s="0"/>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>44590</v>
+        <v>45481</v>
       </c>
       <c r="B118" s="0">
         <v>0.01</v>
@@ -136662,13 +139341,13 @@
         <v>0</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E118" s="0"/>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>44591</v>
+        <v>45482</v>
       </c>
       <c r="B119" s="0">
         <v>0.5</v>
@@ -136677,13 +139356,13 @@
         <v>0</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E119" s="0"/>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>44592</v>
+        <v>45483</v>
       </c>
       <c r="B120" s="0">
         <v>0.5</v>
@@ -136692,13 +139371,13 @@
         <v>0</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E120" s="0"/>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>44593</v>
+        <v>45484</v>
       </c>
       <c r="B121" s="0">
         <v>1</v>
@@ -136707,13 +139386,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E121" s="0"/>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>44594</v>
+        <v>45485</v>
       </c>
       <c r="B122" s="0">
         <v>0.20000000000000001</v>
@@ -136722,13 +139401,13 @@
         <v>0</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E122" s="0"/>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>44595</v>
+        <v>45486</v>
       </c>
       <c r="B123" s="0">
         <v>0.97999999999999998</v>
@@ -136737,13 +139416,13 @@
         <v>0</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E123" s="0"/>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>44596</v>
+        <v>45487</v>
       </c>
       <c r="B124" s="0">
         <v>0.90000000000000002</v>
@@ -136752,13 +139431,13 @@
         <v>0</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>44597</v>
+        <v>45488</v>
       </c>
       <c r="B125" s="0">
         <v>0.14999999999999999</v>
@@ -136767,13 +139446,13 @@
         <v>0</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>44598</v>
+        <v>45489</v>
       </c>
       <c r="B126" s="0">
         <v>0.33333333333333331</v>
@@ -136782,13 +139461,13 @@
         <v>0</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E126" s="0"/>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>44599</v>
+        <v>45490</v>
       </c>
       <c r="B127" s="0">
         <v>0.59999999999999998</v>
@@ -136797,13 +139476,13 @@
         <v>0</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E127" s="0"/>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>44600</v>
+        <v>45491</v>
       </c>
       <c r="B128" s="0">
         <v>0.29999999999999999</v>
@@ -136812,13 +139491,13 @@
         <v>0</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E128" s="0"/>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>44601</v>
+        <v>45492</v>
       </c>
       <c r="B129" s="0">
         <v>0.050000000000000003</v>
@@ -136827,13 +139506,13 @@
         <v>0</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E129" s="0"/>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>44602</v>
+        <v>45493</v>
       </c>
       <c r="B130" s="0">
         <v>0.59999999999999998</v>
@@ -136842,13 +139521,13 @@
         <v>0</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E130" s="0"/>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>44603</v>
+        <v>45494</v>
       </c>
       <c r="B131" s="0">
         <v>0</v>
@@ -136857,13 +139536,13 @@
         <v>0</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>44604</v>
+        <v>45495</v>
       </c>
       <c r="B132" s="0">
         <v>0.40000000000000002</v>
@@ -136872,13 +139551,13 @@
         <v>0</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E132" s="0"/>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>44605</v>
+        <v>45496</v>
       </c>
       <c r="B133" s="0">
         <v>0.10000000000000001</v>
@@ -136887,13 +139566,13 @@
         <v>0</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E133" s="0"/>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>44606</v>
+        <v>45497</v>
       </c>
       <c r="B134" s="0">
         <v>1</v>
@@ -136902,13 +139581,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E134" s="0"/>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>44607</v>
+        <v>45498</v>
       </c>
       <c r="B135" s="0">
         <v>1</v>
@@ -136917,13 +139596,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E135" s="0"/>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>44608</v>
+        <v>45499</v>
       </c>
       <c r="B136" s="0">
         <v>1</v>
@@ -136932,13 +139611,13 @@
         <v>0</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>44609</v>
+        <v>45500</v>
       </c>
       <c r="B137" s="0">
         <v>25</v>
@@ -136947,13 +139626,13 @@
         <v>0</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E137" s="0"/>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>44610</v>
+        <v>45501</v>
       </c>
       <c r="B138" s="0">
         <v>1.1000000000000001</v>
@@ -136962,13 +139641,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E138" s="0"/>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>44611</v>
+        <v>45502</v>
       </c>
       <c r="B139" s="0">
         <v>0.5</v>
@@ -136977,13 +139656,13 @@
         <v>0</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E139" s="0"/>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>44612</v>
+        <v>45503</v>
       </c>
       <c r="B140" s="0">
         <v>3</v>
@@ -136992,13 +139671,13 @@
         <v>0</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E140" s="0"/>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>44613</v>
+        <v>45504</v>
       </c>
       <c r="B141" s="0">
         <v>0.10000000000000001</v>
@@ -137007,13 +139686,13 @@
         <v>0</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E141" s="0"/>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>44614</v>
+        <v>45505</v>
       </c>
       <c r="B142" s="0">
         <v>1.3</v>
@@ -137022,15 +139701,15 @@
         <v>0</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>44758</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>44615</v>
+        <v>45506</v>
       </c>
       <c r="B143" s="0">
         <v>0.5</v>
@@ -137039,13 +139718,13 @@
         <v>0</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E143" s="0"/>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>44616</v>
+        <v>45507</v>
       </c>
       <c r="B144" s="0">
         <v>4</v>
@@ -137054,13 +139733,13 @@
         <v>0</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E144" s="0"/>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>44617</v>
+        <v>45508</v>
       </c>
       <c r="B145" s="0">
         <v>2</v>
@@ -137069,13 +139748,13 @@
         <v>0</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E145" s="0"/>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>44618</v>
+        <v>45509</v>
       </c>
       <c r="B146" s="0">
         <v>0.40000000000000002</v>
@@ -137084,13 +139763,13 @@
         <v>0</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E146" s="0"/>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>44619</v>
+        <v>45510</v>
       </c>
       <c r="B147" s="0">
         <v>0.5</v>
@@ -137099,13 +139778,13 @@
         <v>0</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E147" s="0"/>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>44620</v>
+        <v>45511</v>
       </c>
       <c r="B148" s="0">
         <v>2</v>
@@ -137114,13 +139793,13 @@
         <v>0</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E148" s="0"/>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>44621</v>
+        <v>45512</v>
       </c>
       <c r="B149" s="0">
         <v>0.10000000000000001</v>
@@ -137129,13 +139808,13 @@
         <v>0</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E149" s="0"/>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>44622</v>
+        <v>45513</v>
       </c>
       <c r="B150" s="0">
         <v>0</v>
@@ -137144,13 +139823,13 @@
         <v>0</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E150" s="0"/>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>44623</v>
+        <v>45514</v>
       </c>
       <c r="B151" s="0">
         <v>0.5</v>
@@ -137159,15 +139838,15 @@
         <v>0</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>44759</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>44624</v>
+        <v>45515</v>
       </c>
       <c r="B152" s="0">
         <v>0.5</v>
@@ -137176,15 +139855,15 @@
         <v>0</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>44760</v>
+        <v>45651</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>44625</v>
+        <v>45516</v>
       </c>
       <c r="B153" s="0">
         <v>0.10000000000000001</v>
@@ -137193,15 +139872,15 @@
         <v>0</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>44761</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>44626</v>
+        <v>45517</v>
       </c>
       <c r="B154" s="0">
         <v>0.59999999999999998</v>
@@ -137210,15 +139889,15 @@
         <v>0</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>44762</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>44627</v>
+        <v>45518</v>
       </c>
       <c r="B155" s="0">
         <v>1</v>
@@ -137227,15 +139906,15 @@
         <v>0</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>44763</v>
+        <v>45654</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>44628</v>
+        <v>45519</v>
       </c>
       <c r="B156" s="0">
         <v>0.5</v>
@@ -137244,15 +139923,15 @@
         <v>0</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>44764</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>44629</v>
+        <v>45520</v>
       </c>
       <c r="B157" s="0">
         <v>0.40000000000000002</v>
@@ -137261,13 +139940,13 @@
         <v>0</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E157" s="0"/>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>44630</v>
+        <v>45521</v>
       </c>
       <c r="B158" s="0">
         <v>0.20000000000000001</v>
@@ -137276,13 +139955,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E158" s="0"/>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>44631</v>
+        <v>45522</v>
       </c>
       <c r="B159" s="0">
         <v>0</v>
@@ -137291,13 +139970,13 @@
         <v>0</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E159" s="0"/>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>44632</v>
+        <v>45523</v>
       </c>
       <c r="B160" s="0">
         <v>0</v>
@@ -137306,13 +139985,13 @@
         <v>0</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E160" s="0"/>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>44633</v>
+        <v>45524</v>
       </c>
       <c r="B161" s="0">
         <v>2.5</v>
@@ -137321,13 +140000,13 @@
         <v>0</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E161" s="0"/>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>44634</v>
+        <v>45525</v>
       </c>
       <c r="B162" s="0">
         <v>0.5</v>
@@ -137336,13 +140015,13 @@
         <v>0</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E162" s="0"/>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>44635</v>
+        <v>45526</v>
       </c>
       <c r="B163" s="0">
         <v>0.5</v>
@@ -137351,13 +140030,13 @@
         <v>0</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E163" s="0"/>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>44636</v>
+        <v>45527</v>
       </c>
       <c r="B164" s="0">
         <v>0.5</v>
@@ -137366,13 +140045,13 @@
         <v>0</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E164" s="0"/>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>44637</v>
+        <v>45528</v>
       </c>
       <c r="B165" s="0">
         <v>0</v>
@@ -137381,13 +140060,13 @@
         <v>0</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E165" s="0"/>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>44638</v>
+        <v>45529</v>
       </c>
       <c r="B166" s="0">
         <v>0.5</v>
@@ -137396,13 +140075,13 @@
         <v>0</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E166" s="0"/>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>44639</v>
+        <v>45530</v>
       </c>
       <c r="B167" s="0">
         <v>1</v>
@@ -137411,13 +140090,13 @@
         <v>0</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E167" s="0"/>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>44640</v>
+        <v>45531</v>
       </c>
       <c r="B168" s="0">
         <v>0.90000000000000002</v>
@@ -137426,13 +140105,13 @@
         <v>0</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E168" s="0"/>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>44641</v>
+        <v>45532</v>
       </c>
       <c r="B169" s="0">
         <v>1.01</v>
@@ -137441,13 +140120,13 @@
         <v>0</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E169" s="0"/>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>44642</v>
+        <v>45533</v>
       </c>
       <c r="B170" s="0">
         <v>1</v>
@@ -137456,15 +140135,15 @@
         <v>0</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>44765</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>44643</v>
+        <v>45534</v>
       </c>
       <c r="B171" s="0">
         <v>0.69999999999999996</v>
@@ -137473,15 +140152,15 @@
         <v>0</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>44766</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>44644</v>
+        <v>45535</v>
       </c>
       <c r="B172" s="0">
         <v>0</v>
@@ -137490,15 +140169,15 @@
         <v>0</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>44767</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>44645</v>
+        <v>45536</v>
       </c>
       <c r="B173" s="0">
         <v>10</v>
@@ -137507,15 +140186,15 @@
         <v>0</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>44768</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>44646</v>
+        <v>45537</v>
       </c>
       <c r="B174" s="0">
         <v>0</v>
@@ -137524,10 +140203,10 @@
         <v>1</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>44665</v>
+        <v>45556</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>44769</v>
+        <v>45660</v>
       </c>
     </row>
   </sheetData>
